--- a/data/expt_2/raw_transcripts/game44.xlsx
+++ b/data/expt_2/raw_transcripts/game44.xlsx
@@ -1,94 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MVI_0069.MP4.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="MVI_0069.MP4.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="246">
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>trial</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Yay! Now we're on camera!</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Thank you [apple255] and [pear257] for playing my game.</t>
-  </si>
-  <si>
-    <t>Today we're going to be playing a really fun matching game.</t>
-  </si>
-  <si>
-    <t>Are we ready?</t>
-  </si>
-  <si>
-    <t>Yeah.</t>
-  </si>
-  <si>
-    <t>apple255</t>
-  </si>
-  <si>
-    <t>pear257</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="246">
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay! Now we're on camera!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you [apple255] and [pear257] for playing my game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today we're going to be playing a really fun matching game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are we ready?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pear257</t>
   </si>
   <si>
     <t xml:space="preserve"> But before we do that, we're going to practice touching our iPads by playing a really fun bubble popping game.</t>
   </si>
   <si>
-    <t>Are you guys ready?</t>
+    <t xml:space="preserve">Are you guys ready?</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, so you're going to touch the blue square on your screen to start and just touch all of the bubbles to make them pop, okay?</t>
   </si>
   <si>
-    <t>There you go.</t>
-  </si>
-  <si>
-    <t>And touch all the bubbles to make them pop.</t>
+    <t xml:space="preserve">There you go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And touch all the bubbles to make them pop.</t>
   </si>
   <si>
     <t xml:space="preserve"> Ooh, good job.</t>
   </si>
   <si>
-    <t>Done.</t>
-  </si>
-  <si>
-    <t>Some more maybe.</t>
-  </si>
-  <si>
-    <t>There's more bubbles.</t>
-  </si>
-  <si>
-    <t>Touch them to make them pop.</t>
+    <t xml:space="preserve">Done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some more maybe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's more bubbles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touch them to make them pop.</t>
   </si>
   <si>
     <t xml:space="preserve"> Good job, [apple255].</t>
@@ -100,25 +109,25 @@
     <t xml:space="preserve"> Okay, you guys did so good with the bubble game.</t>
   </si>
   <si>
-    <t>Okay. Now I'm going</t>
-  </si>
-  <si>
-    <t>to explain our matching game okay so in the game we're gonna help our friends</t>
-  </si>
-  <si>
-    <t>Smurphy this is Smurphy do you want to say hi to Smurphy hi [pear257] hi [apple255]</t>
-  </si>
-  <si>
-    <t>so in this game you're gonna tell Smurphy about what you see on your screen</t>
-  </si>
-  <si>
-    <t>now both of you what's this oh that's just some tape right there you can ignore</t>
-  </si>
-  <si>
-    <t>it on your screens each of you are gonna see two pictures okay but one of you</t>
-  </si>
-  <si>
-    <t>is going to see a black box around one of your pictures. If you have the black box around your</t>
+    <t xml:space="preserve">Okay. Now I'm going</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to explain our matching game okay so in the game we're gonna help our friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurphy this is Smurphy do you want to say hi to Smurphy hi [pear257] hi [apple255]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so in this game you're gonna tell Smurphy about what you see on your screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now both of you what's this oh that's just some tape right there you can ignore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it on your screens each of you are gonna see two pictures okay but one of you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is going to see a black box around one of your pictures. If you have the black box around your</t>
   </si>
   <si>
     <t xml:space="preserve"> picture, that means that you're going to be the teller, and you're going to tell what you see</t>
@@ -133,7 +142,7 @@
     <t xml:space="preserve"> picture has the box around it. Now, if you guess the box right, you'll see a happy face,</t>
   </si>
   <si>
-    <t>and that means you got it right.</t>
+    <t xml:space="preserve">and that means you got it right.</t>
   </si>
   <si>
     <t xml:space="preserve"> If you didn't guess her right, you'll see frowning face,</t>
@@ -145,19 +154,19 @@
     <t xml:space="preserve"> to guess the right answer for Smurty, okay?</t>
   </si>
   <si>
-    <t>So we're going to switch off telling who's the teller and who's the guesser.</t>
+    <t xml:space="preserve">So we're going to switch off telling who's the teller and who's the guesser.</t>
   </si>
   <si>
     <t xml:space="preserve"> All right, but once you see it, you tap it on your screen.</t>
   </si>
   <si>
-    <t>Sound good?</t>
+    <t xml:space="preserve">Sound good?</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, here we go.</t>
   </si>
   <si>
-    <t>You guys can start and pressing the blue square on your screen.</t>
+    <t xml:space="preserve">You guys can start and pressing the blue square on your screen.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, so who has the square around their screen?</t>
@@ -169,28 +178,28 @@
     <t xml:space="preserve"> All right, so [pear257], can you tell [apple255] what's in the square on your screen?</t>
   </si>
   <si>
-    <t>Banana.</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>banana</t>
+    <t xml:space="preserve">Banana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banana</t>
   </si>
   <si>
     <t xml:space="preserve"> And now you helps Murphy guess, which is the picture that she told you.</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>You got to touch it.</t>
-  </si>
-  <si>
-    <t>Good job!</t>
-  </si>
-  <si>
-    <t>You guys got it right.</t>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You got to touch it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You guys got it right.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, so now you are going to be the guesser, [pear257], and you're the teller, [apple255].</t>
@@ -199,22 +208,22 @@
     <t xml:space="preserve"> It's a, it's a, it's a, it's a bird.</t>
   </si>
   <si>
-    <t>a bird</t>
-  </si>
-  <si>
-    <t>She told what did she tell you?</t>
-  </si>
-  <si>
-    <t>It's a bird.</t>
-  </si>
-  <si>
-    <t>So now you have to help Smurvey guess which one is in the box.</t>
-  </si>
-  <si>
-    <t>Bird.</t>
-  </si>
-  <si>
-    <t>You have to touch it.</t>
+    <t xml:space="preserve">a bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She told what did she tell you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a bird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So now you have to help Smurvey guess which one is in the box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have to touch it.</t>
   </si>
   <si>
     <t xml:space="preserve"> Good job, you got it right!</t>
@@ -223,175 +232,175 @@
     <t xml:space="preserve"> Okay, so now you're going to be helping Smurphy guess, [apple255].</t>
   </si>
   <si>
-    <t>You're the guesser and you're the teller.</t>
-  </si>
-  <si>
-    <t>[pear257].</t>
-  </si>
-  <si>
-    <t>Mine is a boat.</t>
-  </si>
-  <si>
-    <t>a boat</t>
+    <t xml:space="preserve">You're the guesser and you're the teller.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[pear257].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mine is a boat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a boat</t>
   </si>
   <si>
     <t xml:space="preserve"> Mine, um...</t>
   </si>
   <si>
-    <t>So now you touch what she told you.</t>
-  </si>
-  <si>
-    <t>Yay!</t>
-  </si>
-  <si>
-    <t>T</t>
+    <t xml:space="preserve">So now you touch what she told you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, good job.</t>
   </si>
   <si>
-    <t>Now you're going to be...</t>
+    <t xml:space="preserve">Now you're going to be...</t>
   </si>
   <si>
     <t xml:space="preserve"> You're going to be the guesser, [pear257], and you're the teller, [apple255].</t>
   </si>
   <si>
-    <t>I like this doggy.</t>
-  </si>
-  <si>
-    <t>It's a tree.</t>
-  </si>
-  <si>
-    <t>a tree</t>
-  </si>
-  <si>
-    <t>Good job! Nice!</t>
+    <t xml:space="preserve">I like this doggy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a tree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job! Nice!</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now you're the guesser, [apple255], and you're the teller, [pear257].</t>
   </si>
   <si>
-    <t>My is what?</t>
-  </si>
-  <si>
-    <t>Got to tell her what it looks like.</t>
-  </si>
-  <si>
-    <t>The boat.</t>
-  </si>
-  <si>
-    <t>the boat</t>
-  </si>
-  <si>
-    <t>Do you see it?</t>
+    <t xml:space="preserve">My is what?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got to tell her what it looks like.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The boat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you see it?</t>
   </si>
   <si>
     <t xml:space="preserve"> If you guess it</t>
   </si>
   <si>
-    <t>it doesn't even have a...</t>
+    <t xml:space="preserve">it doesn't even have a...</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, you can't show her, you can't show her.</t>
   </si>
   <si>
-    <t>You have to explain it to her.</t>
-  </si>
-  <si>
-    <t>I can't...</t>
-  </si>
-  <si>
-    <t>Guess what is this?</t>
-  </si>
-  <si>
-    <t>Can you see that?</t>
-  </si>
-  <si>
-    <t>Describe it.</t>
-  </si>
-  <si>
-    <t>Describe what's in there.</t>
-  </si>
-  <si>
-    <t>Tell [apple255] what you see in the square.</t>
-  </si>
-  <si>
-    <t>The thing is, um, a camera.</t>
-  </si>
-  <si>
-    <t>a camera</t>
-  </si>
-  <si>
-    <t>Okay.</t>
+    <t xml:space="preserve">You have to explain it to her.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can't...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guess what is this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you see that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe what's in there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell [apple255] what you see in the square.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The thing is, um, a camera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay.</t>
   </si>
   <si>
     <t xml:space="preserve"> And now, [apple255], you're going to guess based on what she told you.</t>
   </si>
   <si>
-    <t>It's this one or this one?</t>
-  </si>
-  <si>
-    <t>You got to pick.</t>
-  </si>
-  <si>
-    <t>Maybe this one.</t>
+    <t xml:space="preserve">It's this one or this one?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You got to pick.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe this one.</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, that's okay. We can try again.</t>
   </si>
   <si>
-    <t>We'll help Smurphy guess the right one.</t>
+    <t xml:space="preserve">We'll help Smurphy guess the right one.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, so now you're the guesser, [pear257], and you're the teller, [apple255].</t>
   </si>
   <si>
-    <t>Why is his poppy</t>
-  </si>
-  <si>
-    <t>Is it a poppy?</t>
-  </si>
-  <si>
-    <t>Oh no!</t>
-  </si>
-  <si>
-    <t>He has an owie.</t>
+    <t xml:space="preserve">Why is his poppy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it a poppy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh no!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He has an owie.</t>
   </si>
   <si>
     <t xml:space="preserve"> Just be careful with him, okay?</t>
   </si>
   <si>
-    <t>Now you're going to tell her what you see in the box.</t>
-  </si>
-  <si>
-    <t>he got a owie.</t>
-  </si>
-  <si>
-    <t>She needs a band-aid.</t>
+    <t xml:space="preserve">Now you're going to tell her what you see in the box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he got a owie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She needs a band-aid.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, we'll get him a band-aid.</t>
   </si>
   <si>
-    <t>[apple255]'s going to tell you.</t>
-  </si>
-  <si>
-    <t>Pay attention to [apple255].</t>
-  </si>
-  <si>
-    <t>I don't know what it is, I don't know which one it is.</t>
-  </si>
-  <si>
-    <t>It's the one in here.</t>
+    <t xml:space="preserve">[apple255]'s going to tell you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pay attention to [apple255].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't know what it is, I don't know which one it is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's the one in here.</t>
   </si>
   <si>
     <t xml:space="preserve"> It is, I think it's like camel or something.</t>
   </si>
   <si>
-    <t>camel</t>
-  </si>
-  <si>
-    <t>I think this one.</t>
+    <t xml:space="preserve">camel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think this one.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yay, good job! You guys are doing great!</t>
@@ -400,79 +409,76 @@
     <t xml:space="preserve"> Okay, now you're the guesser.</t>
   </si>
   <si>
-    <t>I'm winning!</t>
+    <t xml:space="preserve">I'm winning!</t>
   </si>
   <si>
     <t xml:space="preserve"> You're gonna be the guesser, [apple255]t, and you're the teller, [pear257].</t>
   </si>
   <si>
-    <t>So tell her what you see in the box.</t>
-  </si>
-  <si>
-    <t>Looks like people or something?</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>It looks like a people or something.</t>
-  </si>
-  <si>
-    <t>a people</t>
-  </si>
-  <si>
-    <t>What does it look like?</t>
-  </si>
-  <si>
-    <t>I won't tell you.</t>
-  </si>
-  <si>
-    <t>Just describe it.</t>
-  </si>
-  <si>
-    <t>I don't know what it looks like.</t>
-  </si>
-  <si>
-    <t>Is it this one or this one?</t>
-  </si>
-  <si>
-    <t>You can ask her more about it.</t>
+    <t xml:space="preserve">So tell her what you see in the box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like people or something?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It looks like a people or something.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a people or something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does it look like?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I won't tell you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just describe it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't know what it looks like.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it this one or this one?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can ask her more about it.</t>
   </si>
   <si>
     <t xml:space="preserve"> It looks like a people, but it doesn't have any arms.</t>
   </si>
   <si>
-    <t>a people, but it doesn't have any arms</t>
+    <t xml:space="preserve">a people, but it doesn't have any arms</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, I know this one.</t>
   </si>
   <si>
-    <t>You guys did so good!</t>
-  </si>
-  <si>
-    <t>Good.</t>
+    <t xml:space="preserve">You guys did so good!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now you're the guesser [pear257] and you're the teller, [apple255].</t>
   </si>
   <si>
-    <t>I like the pink one because pink is my favorite color.</t>
-  </si>
-  <si>
-    <t>Pink is a really good color.</t>
-  </si>
-  <si>
-    <t>Why do you have a heart like?</t>
-  </si>
-  <si>
-    <t>You like it?</t>
-  </si>
-  <si>
-    <t>It's a little heart.</t>
-  </si>
-  <si>
-    <t>Do you like it? Thank you.</t>
+    <t xml:space="preserve">I like the pink one because pink is my favorite color.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pink is a really good color.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do you have a heart like?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You like it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a little heart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you like it? Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, [apple255]'s going to tell you.</t>
@@ -481,52 +487,55 @@
     <t xml:space="preserve"> It kind of looks like a pastry or something, but it has legs.</t>
   </si>
   <si>
-    <t>a pastry but it has legs</t>
-  </si>
-  <si>
-    <t>I know.</t>
+    <t xml:space="preserve">a pastry or something but it has legs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yay, good job!</t>
   </si>
   <si>
-    <t>I'm winning right now.</t>
+    <t xml:space="preserve">I'm winning right now.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now [apple255] is the guesser and you're the teller, [pear257].</t>
   </si>
   <si>
-    <t>Looks like a tree but something like is jumping and they have legs.</t>
-  </si>
-  <si>
-    <t>a tree but something like is jumping and they have legs</t>
-  </si>
-  <si>
-    <t>Is it...</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Does it have two legs or one?</t>
-  </si>
-  <si>
-    <t>Two.</t>
-  </si>
-  <si>
-    <t>Okay!</t>
-  </si>
-  <si>
-    <t>Now you're the guesser [pear257] and you're the teller [apple255].</t>
-  </si>
-  <si>
-    <t>It's something that kind of looks like a boat or something.</t>
+    <t xml:space="preserve">Looks like a tree but something like is jumping and they have legs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a tree but something like is jumping and they have legs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does it have two legs or one?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two legs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now you're the guesser [pear257] and you're the teller [apple255].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's something that kind of looks like a boat or something.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now you're the guesser [apple255].</t>
   </si>
   <si>
-    <t>You're like a baby.</t>
+    <t xml:space="preserve">You're like a baby.</t>
   </si>
   <si>
     <t xml:space="preserve"> And you're the teller [pear257], yeah, like a baby.</t>
@@ -535,28 +544,28 @@
     <t xml:space="preserve"> It looks like something that holding a p-,</t>
   </si>
   <si>
-    <t>it looks like someone holding a plate and giving it to a restaurant and has watermelon.</t>
-  </si>
-  <si>
-    <t>someone holding a plate and giving it to a restaurant and has watermelon</t>
-  </si>
-  <si>
-    <t>Isaac has one leg it's like and then someone and then like one leg so it's</t>
-  </si>
-  <si>
-    <t>giving with their leg to someone else?</t>
-  </si>
-  <si>
-    <t>has one leg it's like and then someone and then like one leg so it's giving with their leg to someone else</t>
-  </si>
-  <si>
-    <t>good job okay now you're the guesser [pear257] and you're the teller [apple255]</t>
-  </si>
-  <si>
-    <t>um it's something that kind of looks like it looks like it's someone like a plate or something giving it to someone</t>
-  </si>
-  <si>
-    <t>something that kind of looks like it looks like it's someone like a plate or something giving it to someone</t>
+    <t xml:space="preserve">it looks like someone holding a plate and giving it to a restaurant and has watermelon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">someone holding a plate and giving it to a restaurant and has watermelon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaac has one leg it's like and then someone and then like one leg so it's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giving with their leg to someone else?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has one leg it's like and then someone and then like one leg so it's giving with their leg to someone else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good job okay now you're the guesser [pear257] and you're the teller [apple255]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">um it's something that kind of looks like it looks like it's someone like a plate or something giving it to someone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">someone like a plate or something giving it to someone</t>
   </si>
   <si>
     <t xml:space="preserve"> Hey, I got the box.</t>
@@ -565,31 +574,31 @@
     <t xml:space="preserve"> Oh, sorry.</t>
   </si>
   <si>
-    <t>Can you tell her what she said again?</t>
+    <t xml:space="preserve">Can you tell her what she said again?</t>
   </si>
   <si>
     <t xml:space="preserve"> Sorry, the iPad messed up.</t>
   </si>
   <si>
-    <t>It looks like a person that is walking.</t>
-  </si>
-  <si>
-    <t>a person that is walking</t>
-  </si>
-  <si>
-    <t>You guys are doing such a good job.</t>
+    <t xml:space="preserve">It looks like a person that is walking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a person that is walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You guys are doing such a good job.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now you're the guesser, [apple255]igh, and you're the teller, [pear257].</t>
   </si>
   <si>
-    <t>I'm winning.</t>
-  </si>
-  <si>
-    <t>You guys are both winning.</t>
-  </si>
-  <si>
-    <t>I'm winning because [apple255].</t>
+    <t xml:space="preserve">I'm winning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You guys are both winning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm winning because [apple255].</t>
   </si>
   <si>
     <t xml:space="preserve"> because [apple255], last time [apple255] was like something, but now I'm winning.</t>
@@ -598,31 +607,31 @@
     <t xml:space="preserve"> Here, okay, now you're going to tell her what you see.</t>
   </si>
   <si>
-    <t>I see something like a boat.</t>
+    <t xml:space="preserve">I see something like a boat.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now [pear257], you're the guesser and you're the teller, [apple255].</t>
   </si>
   <si>
-    <t>It's something that kind of looks like it's flying.</t>
-  </si>
-  <si>
-    <t>something that kind of looks like it's flying</t>
-  </si>
-  <si>
-    <t>Are you coming every day?</t>
-  </si>
-  <si>
-    <t>Every Friday.</t>
-  </si>
-  <si>
-    <t>It's something it's like flying.</t>
-  </si>
-  <si>
-    <t>flying and it's jumping.</t>
-  </si>
-  <si>
-    <t>flying and it's jumping</t>
+    <t xml:space="preserve">It's something that kind of looks like it's flying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> it's flying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you coming every day?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every Friday.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's something it's like flying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flying and it's jumping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flying and it's jumping</t>
   </si>
   <si>
     <t xml:space="preserve"> Woo, good job!</t>
@@ -631,19 +640,19 @@
     <t xml:space="preserve"> Okay, now you're the guesser [apple255] and you're the teller.</t>
   </si>
   <si>
-    <t>It looks like someone holding a plate and giving it to someone with [apple255].</t>
-  </si>
-  <si>
-    <t>someone holding a plate and giving it to someone</t>
+    <t xml:space="preserve">It looks like someone holding a plate and giving it to someone with [apple255].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">someone holding a plate and giving it to someone</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now you're the guesser [pear257] and you're the teller [apple255]e.</t>
   </si>
   <si>
-    <t>It's someone that kind of looks like it's walking.</t>
-  </si>
-  <si>
-    <t>someone that kind of looks like it's walking</t>
+    <t xml:space="preserve">It's someone that kind of looks like it's walking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">someone that kind of looks like it's walking</t>
   </si>
   <si>
     <t xml:space="preserve"> Yay! Okay, can I see Smurphy?</t>
@@ -652,19 +661,19 @@
     <t xml:space="preserve"> You're, oh, can I have him?</t>
   </si>
   <si>
-    <t>Smurvy is going away from your hands.</t>
+    <t xml:space="preserve">Smurvy is going away from your hands.</t>
   </si>
   <si>
     <t xml:space="preserve"> Please, can I have Smurphy?</t>
   </si>
   <si>
-    <t>He doesn't like you anymore.</t>
+    <t xml:space="preserve">He doesn't like you anymore.</t>
   </si>
   <si>
     <t xml:space="preserve"> We gotta keep playing the game, he's saying you really wants to play.</t>
   </si>
   <si>
-    <t>Thank you.</t>
+    <t xml:space="preserve">Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now you're going to be the guesser, [apple255], and you're the...</t>
@@ -673,22 +682,22 @@
     <t xml:space="preserve"> Alright, sit down. You're going to be the teller, okay, [pear257]?</t>
   </si>
   <si>
-    <t>Tell [apple255] what you see?</t>
-  </si>
-  <si>
-    <t>Someone's jumping.</t>
-  </si>
-  <si>
-    <t>someone's jumping</t>
-  </si>
-  <si>
-    <t>Smurphy doesn't like you.</t>
-  </si>
-  <si>
-    <t>Smurphy is flying around.</t>
-  </si>
-  <si>
-    <t>We need Smurphy to play.</t>
+    <t xml:space="preserve">Tell [apple255] what you see?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Someone's jumping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">someone's jumping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurphy doesn't like you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurphy is flying around.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We need Smurphy to play.</t>
   </si>
   <si>
     <t xml:space="preserve"> You're going to be the guesser now, [pear257], and you're the teller, [apple255].</t>
@@ -697,13 +706,13 @@
     <t xml:space="preserve"> It's something, someone that's walking.</t>
   </si>
   <si>
-    <t>someone that's walking</t>
-  </si>
-  <si>
-    <t>It kind of looks like...</t>
-  </si>
-  <si>
-    <t>Woo!</t>
+    <t xml:space="preserve">someone that's walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It kind of looks like...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woo!</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now you're the guesser, [apple255].</t>
@@ -712,60 +721,81 @@
     <t xml:space="preserve"> You're the teller, [pear257].</t>
   </si>
   <si>
-    <t>Is someone that giving a plate to someone with one hand.</t>
-  </si>
-  <si>
-    <t>someone that giving a plate to someone with one hand</t>
-  </si>
-  <si>
-    <t>Smurphy doesn't like you!</t>
-  </si>
-  <si>
-    <t>No!</t>
+    <t xml:space="preserve">Is someone that giving a plate to someone with one hand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">someone that giving a plate to someone with one hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurphy doesn't like you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No!</t>
   </si>
   <si>
     <t xml:space="preserve"> Now you're the guesser, [pear257], and you're the teller, [apple255]?</t>
   </si>
   <si>
-    <t>You guys are so fast.</t>
-  </si>
-  <si>
-    <t>Smurkey!</t>
-  </si>
-  <si>
-    <t>We finished the game!</t>
+    <t xml:space="preserve">You guys are so fast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurkey!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We finished the game!</t>
   </si>
   <si>
     <t xml:space="preserve"> Good job, you guys!</t>
   </si>
   <si>
-    <t>So I will take it home?</t>
+    <t xml:space="preserve">So I will take it home?</t>
   </si>
   <si>
     <t xml:space="preserve"> No, you're not, but Smurphy's so happy we got to play.</t>
   </si>
   <si>
-    <t>Thank you guys so much.</t>
-  </si>
-  <si>
-    <t>I'm going to end the recording now.</t>
+    <t xml:space="preserve">Thank you guys so much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm going to end the recording now.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -773,32 +803,66 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -809,94 +873,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -904,33 +964,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -943,13 +994,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -959,15 +1004,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -975,7 +1018,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -983,11 +1025,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -996,22 +1038,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I237" activeCellId="0" sqref="I237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="26.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.37"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,12 +1081,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4000.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>4000</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -1051,12 +1095,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>4000.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>9000.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>9000</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1065,12 +1109,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>9000.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>13000.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>9000</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>13000</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1079,12 +1123,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>13000.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>14000.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>13000</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>14000</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1093,12 +1137,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>14000.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>15000.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>14000</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>15000</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1107,12 +1151,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>14000.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>15000.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>14000</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>15000</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1121,12 +1165,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>15000.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>20000.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>15000</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>20000</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -1135,12 +1179,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>20000.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>21000.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>21000</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -1149,12 +1193,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>21000.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>22000.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>21000</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>22000</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -1163,12 +1207,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>22000.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>29000.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>22000</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>29000</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -1177,12 +1221,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>29000.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>31000.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>29000</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>31000</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -1191,12 +1235,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>31000.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>34000.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>31000</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>34000</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -1205,12 +1249,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>34000.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>36000.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>34000</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>36000</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -1219,12 +1263,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>36000.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>37000.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>36000</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>37000</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -1233,12 +1277,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>37000.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>38000.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>37000</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>38000</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>22</v>
@@ -1247,12 +1291,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>38000.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>39000.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>38000</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>39000</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>22</v>
@@ -1261,12 +1305,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>39000.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>40000.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>39000</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>40000</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>22</v>
@@ -1275,12 +1319,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>40000.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>42000.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>42000</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>23</v>
@@ -1289,12 +1333,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>42000.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>43000.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>42000</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>43000</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>24</v>
@@ -1303,12 +1347,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>43000.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>46000.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>43000</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>46000</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>25</v>
@@ -1317,12 +1361,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>46000.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>49000.0</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>49000</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>26</v>
@@ -1331,12 +1375,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>49000.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>55000.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>49000</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>55000</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>27</v>
@@ -1345,12 +1389,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>55000.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>58000.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>55000</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>58000</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>28</v>
@@ -1359,12 +1403,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>58000.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>59000.0</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>58000</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>59000</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>29</v>
@@ -1373,12 +1417,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>59000.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>65360.0</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>59000</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>65360</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>30</v>
@@ -1387,12 +1431,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>65360.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>71000.0</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>65360</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>71000</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>31</v>
@@ -1401,12 +1445,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>71000.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>76160.0</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>71000</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>76160</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -1415,12 +1459,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>76160.0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>81860.0</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>76160</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>81860</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>33</v>
@@ -1429,12 +1473,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>81860.0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>87500.0</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>81860</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>87500</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>34</v>
@@ -1443,12 +1487,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>87500.0</v>
-      </c>
-      <c r="B31" s="1">
-        <v>93120.0</v>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>87500</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>93120</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>35</v>
@@ -1457,12 +1501,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>93120.0</v>
-      </c>
-      <c r="B32" s="1">
-        <v>98260.0</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>93120</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>98260</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>36</v>
@@ -1471,12 +1515,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>98260.0</v>
-      </c>
-      <c r="B33" s="1">
-        <v>102760.0</v>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>98260</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>102760</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>37</v>
@@ -1485,12 +1529,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>102760.0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>106820.0</v>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>102760</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>106820</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>38</v>
@@ -1499,12 +1543,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>106820.0</v>
-      </c>
-      <c r="B35" s="1">
-        <v>113260.0</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>106820</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>113260</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>39</v>
@@ -1513,12 +1557,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>113260.0</v>
-      </c>
-      <c r="B36" s="1">
-        <v>114300.0</v>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>113260</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>114300</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>40</v>
@@ -1527,12 +1571,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>114720.0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>116840.0</v>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>114720</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>116840</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>41</v>
@@ -1541,12 +1585,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>116920.0</v>
-      </c>
-      <c r="B38" s="1">
-        <v>118840.0</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>116920</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>118840</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>42</v>
@@ -1555,12 +1599,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>118840.0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>120740.0</v>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>118840</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>120740</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>43</v>
@@ -1569,12 +1613,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>121400.0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>125360.0</v>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>121400</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>125360</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>44</v>
@@ -1583,12 +1627,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>125600.0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>128300.0</v>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>125600</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>128300</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>45</v>
@@ -1597,12 +1641,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>128460.0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>128880.0</v>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>128460</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>128880</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>46</v>
@@ -1611,12 +1655,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>129380.0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>130700.0</v>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>129380</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>130700</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>47</v>
@@ -1625,12 +1669,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>131620.0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>135060.0</v>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>131620</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>135060</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>48</v>
@@ -1639,12 +1683,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>135060.0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>139180.0</v>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>135060</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>139180</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>49</v>
@@ -1653,12 +1697,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>139740.0</v>
-      </c>
-      <c r="B46" s="1">
-        <v>143140.0</v>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>139740</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>143140</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>50</v>
@@ -1667,12 +1711,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>144720.0</v>
-      </c>
-      <c r="B47" s="1">
-        <v>150720.0</v>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>144720</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>150720</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>51</v>
@@ -1681,12 +1725,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>151980.0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>152360.0</v>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>151980</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>152360</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>52</v>
@@ -1694,8 +1738,8 @@
       <c r="D48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="1">
-        <v>0.0</v>
+      <c r="E48" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>53</v>
@@ -1704,12 +1748,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>153960.0</v>
-      </c>
-      <c r="B49" s="1">
-        <v>157440.0</v>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>153960</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>157440</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>55</v>
@@ -1718,12 +1762,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>158020.0</v>
-      </c>
-      <c r="B50" s="1">
-        <v>158520.0</v>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>158020</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>158520</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>52</v>
@@ -1735,12 +1779,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>159060.0</v>
-      </c>
-      <c r="B51" s="1">
-        <v>159940.0</v>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>159060</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>159940</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>57</v>
@@ -1749,12 +1793,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>161520.0</v>
-      </c>
-      <c r="B52" s="1">
-        <v>162580.0</v>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>161520</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>162580</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>58</v>
@@ -1763,12 +1807,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>162760.0</v>
-      </c>
-      <c r="B53" s="1">
-        <v>163660.0</v>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>162760</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>163660</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>59</v>
@@ -1777,12 +1821,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>163660.0</v>
-      </c>
-      <c r="B54" s="1">
-        <v>169060.0</v>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>163660</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>169060</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>60</v>
@@ -1791,12 +1835,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1">
-        <v>171560.0</v>
-      </c>
-      <c r="B55" s="1">
-        <v>177380.0</v>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>171560</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>177380</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>61</v>
@@ -1804,8 +1848,8 @@
       <c r="D55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="1">
-        <v>1.0</v>
+      <c r="E55" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>53</v>
@@ -1814,12 +1858,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>180100.0</v>
-      </c>
-      <c r="B56" s="1">
-        <v>183420.0</v>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>180100</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>183420</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>63</v>
@@ -1828,12 +1872,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>184700.0</v>
-      </c>
-      <c r="B57" s="1">
-        <v>185660.0</v>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>184700</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>185660</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>64</v>
@@ -1844,16 +1888,14 @@
       <c r="F57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1">
-        <v>186040.0</v>
-      </c>
-      <c r="B58" s="1">
-        <v>188760.0</v>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>186040</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>188760</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>65</v>
@@ -1862,12 +1904,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>188760.0</v>
-      </c>
-      <c r="B59" s="1">
-        <v>189760.0</v>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>188760</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>189760</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>66</v>
@@ -1879,12 +1921,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>189760.0</v>
-      </c>
-      <c r="B60" s="1">
-        <v>191760.0</v>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>189760</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>191760</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>67</v>
@@ -1893,12 +1935,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>191760.0</v>
-      </c>
-      <c r="B61" s="1">
-        <v>195760.0</v>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>191760</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>195760</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>68</v>
@@ -1907,12 +1949,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>195760.0</v>
-      </c>
-      <c r="B62" s="1">
-        <v>198760.0</v>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>195760</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>198760</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>69</v>
@@ -1921,12 +1963,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>198760.0</v>
-      </c>
-      <c r="B63" s="1">
-        <v>200760.0</v>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>198760</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>200760</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>70</v>
@@ -1935,12 +1977,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>200760.0</v>
-      </c>
-      <c r="B64" s="1">
-        <v>201760.0</v>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>200760</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>201760</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>71</v>
@@ -1949,12 +1991,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>201760.0</v>
-      </c>
-      <c r="B65" s="1">
-        <v>205760.0</v>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>201760</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>205760</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>72</v>
@@ -1962,8 +2004,8 @@
       <c r="D65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="1">
-        <v>2.0</v>
+      <c r="E65" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>53</v>
@@ -1972,12 +2014,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>205760.0</v>
-      </c>
-      <c r="B66" s="1">
-        <v>209760.0</v>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>205760</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>209760</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>74</v>
@@ -1989,12 +2031,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>209760.0</v>
-      </c>
-      <c r="B67" s="1">
-        <v>212760.0</v>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>209760</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>212760</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>75</v>
@@ -2003,12 +2045,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>212760.0</v>
-      </c>
-      <c r="B68" s="1">
-        <v>214760.0</v>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>212760</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>214760</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>76</v>
@@ -2017,12 +2059,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>214760.0</v>
-      </c>
-      <c r="B69" s="1">
-        <v>215760.0</v>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>214760</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>215760</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>58</v>
@@ -2031,12 +2073,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1">
-        <v>215760.0</v>
-      </c>
-      <c r="B70" s="1">
-        <v>216760.0</v>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>215760</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>216760</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>78</v>
@@ -2045,12 +2087,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>216760.0</v>
-      </c>
-      <c r="B71" s="1">
-        <v>217760.0</v>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>216760</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>217760</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>79</v>
@@ -2059,12 +2101,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>217760.0</v>
-      </c>
-      <c r="B72" s="1">
-        <v>222000.0</v>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>217760</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>222000</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>80</v>
@@ -2073,12 +2115,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1">
-        <v>222000.0</v>
-      </c>
-      <c r="B73" s="1">
-        <v>224000.0</v>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>222000</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>224000</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>81</v>
@@ -2087,12 +2129,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1">
-        <v>224000.0</v>
-      </c>
-      <c r="B74" s="1">
-        <v>226000.0</v>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>224000</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>226000</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>82</v>
@@ -2100,8 +2142,8 @@
       <c r="D74" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="1">
-        <v>3.0</v>
+      <c r="E74" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>53</v>
@@ -2110,12 +2152,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1">
-        <v>229520.0</v>
-      </c>
-      <c r="B75" s="1">
-        <v>231200.0</v>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>229520</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>231200</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>84</v>
@@ -2124,12 +2166,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1">
-        <v>231200.0</v>
-      </c>
-      <c r="B76" s="1">
-        <v>235520.0</v>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>231200</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>235520</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>85</v>
@@ -2138,12 +2180,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1">
-        <v>235520.0</v>
-      </c>
-      <c r="B77" s="1">
-        <v>238480.0</v>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>235520</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>238480</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>86</v>
@@ -2151,19 +2193,19 @@
       <c r="D77" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E77" s="1">
-        <v>4.0</v>
+      <c r="E77" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1">
-        <v>240480.0</v>
-      </c>
-      <c r="B78" s="1">
-        <v>241920.0</v>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>240480</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>241920</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>87</v>
@@ -2172,12 +2214,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1">
-        <v>244000.0</v>
-      </c>
-      <c r="B79" s="1">
-        <v>244640.0</v>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>244000</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>244640</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>88</v>
@@ -2192,12 +2234,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1">
-        <v>244640.0</v>
-      </c>
-      <c r="B80" s="1">
-        <v>249640.0</v>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>244640</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>249640</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>90</v>
@@ -2209,12 +2251,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1">
-        <v>249640.0</v>
-      </c>
-      <c r="B81" s="1">
-        <v>252640.0</v>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>249640</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>252640</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>91</v>
@@ -2226,12 +2268,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1">
-        <v>249640.0</v>
-      </c>
-      <c r="B82" s="1">
-        <v>252640.0</v>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>249640</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>252640</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>92</v>
@@ -2243,12 +2285,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1">
-        <v>252640.0</v>
-      </c>
-      <c r="B83" s="1">
-        <v>255640.0</v>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>252640</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>255640</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>93</v>
@@ -2257,12 +2299,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1">
-        <v>255640.0</v>
-      </c>
-      <c r="B84" s="1">
-        <v>257640.0</v>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>255640</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>257640</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>94</v>
@@ -2271,12 +2313,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1">
-        <v>257640.0</v>
-      </c>
-      <c r="B85" s="1">
-        <v>258640.0</v>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>257640</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>258640</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>95</v>
@@ -2288,12 +2330,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1">
-        <v>258640.0</v>
-      </c>
-      <c r="B86" s="1">
-        <v>260640.0</v>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>258640</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>260640</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>96</v>
@@ -2305,12 +2347,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1">
-        <v>260640.0</v>
-      </c>
-      <c r="B87" s="1">
-        <v>261640.0</v>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>260640</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>261640</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>97</v>
@@ -2322,12 +2364,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1">
-        <v>261640.0</v>
-      </c>
-      <c r="B88" s="1">
-        <v>262640.0</v>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>261640</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>262640</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>98</v>
@@ -2336,12 +2378,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1">
-        <v>262640.0</v>
-      </c>
-      <c r="B89" s="1">
-        <v>264640.0</v>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>262640</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>264640</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>99</v>
@@ -2350,12 +2392,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1">
-        <v>268640.0</v>
-      </c>
-      <c r="B90" s="1">
-        <v>273640.0</v>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>268640</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>273640</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>100</v>
@@ -2364,12 +2406,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1">
-        <v>273640.0</v>
-      </c>
-      <c r="B91" s="1">
-        <v>280640.0</v>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>273640</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>280640</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>101</v>
@@ -2384,12 +2426,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1">
-        <v>280640.0</v>
-      </c>
-      <c r="B92" s="1">
-        <v>282640.0</v>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>280640</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>282640</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>103</v>
@@ -2398,12 +2440,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1">
-        <v>282640.0</v>
-      </c>
-      <c r="B93" s="1">
-        <v>286640.0</v>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>282640</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>286640</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>104</v>
@@ -2412,12 +2454,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1">
-        <v>286640.0</v>
-      </c>
-      <c r="B94" s="1">
-        <v>288640.0</v>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>286640</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>288640</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>105</v>
@@ -2429,12 +2471,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1">
-        <v>288640.0</v>
-      </c>
-      <c r="B95" s="1">
-        <v>289640.0</v>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>288640</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>289640</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>106</v>
@@ -2443,12 +2485,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>289640.0</v>
-      </c>
-      <c r="B96" s="1">
-        <v>292640.0</v>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>289640</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>292640</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>107</v>
@@ -2457,12 +2499,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>292640.0</v>
-      </c>
-      <c r="B97" s="1">
-        <v>295640.0</v>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>292640</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>295640</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>108</v>
@@ -2471,12 +2513,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>295640.0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>297640.0</v>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>295640</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>297640</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>109</v>
@@ -2485,12 +2527,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>297640.0</v>
-      </c>
-      <c r="B99" s="1">
-        <v>301640.0</v>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>297640</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>301640</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>110</v>
@@ -2499,12 +2541,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>301640.0</v>
-      </c>
-      <c r="B100" s="1">
-        <v>302640.0</v>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>301640</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>302640</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>111</v>
@@ -2513,12 +2555,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1">
-        <v>302640.0</v>
-      </c>
-      <c r="B101" s="1">
-        <v>304640.0</v>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>302640</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>304640</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>112</v>
@@ -2527,12 +2569,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1">
-        <v>305640.0</v>
-      </c>
-      <c r="B102" s="1">
-        <v>306640.0</v>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>305640</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>306640</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>113</v>
@@ -2541,12 +2583,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1">
-        <v>306640.0</v>
-      </c>
-      <c r="B103" s="1">
-        <v>307640.0</v>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>306640</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>307640</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>114</v>
@@ -2555,12 +2597,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1">
-        <v>307640.0</v>
-      </c>
-      <c r="B104" s="1">
-        <v>309640.0</v>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>307640</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>309640</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>115</v>
@@ -2569,12 +2611,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1">
-        <v>309640.0</v>
-      </c>
-      <c r="B105" s="1">
-        <v>310640.0</v>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>309640</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>310640</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>103</v>
@@ -2583,12 +2625,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1">
-        <v>312640.0</v>
-      </c>
-      <c r="B106" s="1">
-        <v>315640.0</v>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>312640</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>315640</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>116</v>
@@ -2597,12 +2639,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1">
-        <v>315640.0</v>
-      </c>
-      <c r="B107" s="1">
-        <v>317640.0</v>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>315640</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>317640</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>117</v>
@@ -2611,12 +2653,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1">
-        <v>317640.0</v>
-      </c>
-      <c r="B108" s="1">
-        <v>319640.0</v>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>317640</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>319640</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>118</v>
@@ -2625,12 +2667,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1">
-        <v>319640.0</v>
-      </c>
-      <c r="B109" s="1">
-        <v>321640.0</v>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>319640</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>321640</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>119</v>
@@ -2639,12 +2681,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1">
-        <v>321640.0</v>
-      </c>
-      <c r="B110" s="1">
-        <v>323640.0</v>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>321640</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>323640</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>120</v>
@@ -2653,12 +2695,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>323640.0</v>
-      </c>
-      <c r="B111" s="1">
-        <v>324640.0</v>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>323640</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>324640</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>120</v>
@@ -2667,12 +2709,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1">
-        <v>324640.0</v>
-      </c>
-      <c r="B112" s="1">
-        <v>325640.0</v>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>324640</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>325640</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>121</v>
@@ -2681,12 +2723,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>325640.0</v>
-      </c>
-      <c r="B113" s="1">
-        <v>328640.0</v>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>325640</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>328640</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>122</v>
@@ -2694,19 +2736,19 @@
       <c r="D113" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E113" s="1">
-        <v>5.0</v>
+      <c r="E113" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1">
-        <v>328640.0</v>
-      </c>
-      <c r="B114" s="1">
-        <v>330640.0</v>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>328640</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>330640</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>123</v>
@@ -2715,12 +2757,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1">
-        <v>330640.0</v>
-      </c>
-      <c r="B115" s="1">
-        <v>336640.0</v>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>330640</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>336640</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>124</v>
@@ -2735,12 +2777,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1">
-        <v>340640.0</v>
-      </c>
-      <c r="B116" s="1">
-        <v>342640.0</v>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>340640</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>342640</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>126</v>
@@ -2752,12 +2794,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1">
-        <v>342640.0</v>
-      </c>
-      <c r="B117" s="1">
-        <v>346640.0</v>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>342640</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>346640</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>127</v>
@@ -2766,12 +2808,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1">
-        <v>346640.0</v>
-      </c>
-      <c r="B118" s="1">
-        <v>347640.0</v>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>346640</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>347640</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>128</v>
@@ -2780,12 +2822,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1">
-        <v>347640.0</v>
-      </c>
-      <c r="B119" s="1">
-        <v>348640.0</v>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>347640</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>348640</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>129</v>
@@ -2794,12 +2836,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1">
-        <v>348640.0</v>
-      </c>
-      <c r="B120" s="1">
-        <v>351640.0</v>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>348640</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>351640</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>130</v>
@@ -2808,12 +2850,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1">
-        <v>351640.0</v>
-      </c>
-      <c r="B121" s="1">
-        <v>353640.0</v>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>351640</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>353640</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>131</v>
@@ -2822,12 +2864,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1">
-        <v>353640.0</v>
-      </c>
-      <c r="B122" s="1">
-        <v>356640.0</v>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>353640</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>356640</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>132</v>
@@ -2835,25 +2877,23 @@
       <c r="D122" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E122" s="1">
-        <v>6.0</v>
+      <c r="E122" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="H122" s="1"/>
+    </row>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>358640</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>360640</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1">
-        <v>358640.0</v>
-      </c>
-      <c r="B123" s="1">
-        <v>360640.0</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>15</v>
@@ -2862,18 +2902,18 @@
         <v>53</v>
       </c>
       <c r="H123" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>360640</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>362640</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1">
-        <v>360640.0</v>
-      </c>
-      <c r="B124" s="1">
-        <v>362640.0</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>14</v>
@@ -2882,15 +2922,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1">
-        <v>362640.0</v>
-      </c>
-      <c r="B125" s="1">
-        <v>364640.0</v>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>362640</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>364640</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>15</v>
@@ -2899,29 +2939,29 @@
         <v>53</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1">
-        <v>364640.0</v>
-      </c>
-      <c r="B126" s="1">
-        <v>365640.0</v>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>364640</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>365640</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>365640</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>367640</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1">
-        <v>365640.0</v>
-      </c>
-      <c r="B127" s="1">
-        <v>367640.0</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>14</v>
@@ -2930,15 +2970,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1">
-        <v>367640.0</v>
-      </c>
-      <c r="B128" s="1">
-        <v>369640.0</v>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>367640</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>369640</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>14</v>
@@ -2947,29 +2987,29 @@
         <v>56</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1">
-        <v>369640.0</v>
-      </c>
-      <c r="B129" s="1">
-        <v>372640.0</v>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>369640</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>372640</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>372640</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>376640</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1">
-        <v>372640.0</v>
-      </c>
-      <c r="B130" s="1">
-        <v>376640.0</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>15</v>
@@ -2978,18 +3018,18 @@
         <v>53</v>
       </c>
       <c r="H130" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>376640</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>378640</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1">
-        <v>376640.0</v>
-      </c>
-      <c r="B131" s="1">
-        <v>378640.0</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>14</v>
@@ -2998,12 +3038,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1">
-        <v>378640.0</v>
-      </c>
-      <c r="B132" s="1">
-        <v>380640.0</v>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>378640</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>380640</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>76</v>
@@ -3012,178 +3052,178 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1">
-        <v>380640.0</v>
-      </c>
-      <c r="B133" s="1">
-        <v>382640.0</v>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>380640</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>382640</v>
       </c>
       <c r="C133" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>382640</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>383640</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1">
-        <v>382640.0</v>
-      </c>
-      <c r="B134" s="1">
-        <v>383640.0</v>
-      </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>383640</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>389640</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1">
-        <v>383640.0</v>
-      </c>
-      <c r="B135" s="1">
-        <v>389640.0</v>
-      </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>389640</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>395640</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1">
-        <v>389640.0</v>
-      </c>
-      <c r="B136" s="1">
-        <v>395640.0</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1">
-        <v>395640.0</v>
-      </c>
-      <c r="B137" s="1">
-        <v>397640.0</v>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>395640</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>397640</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>397640</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>398640</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1">
-        <v>397640.0</v>
-      </c>
-      <c r="B138" s="1">
-        <v>398640.0</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1">
-        <v>398640.0</v>
-      </c>
-      <c r="B139" s="1">
-        <v>399640.0</v>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>398640</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>399640</v>
       </c>
       <c r="C139" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>399640</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>400640</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1">
-        <v>399640.0</v>
-      </c>
-      <c r="B140" s="1">
-        <v>400640.0</v>
-      </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>401640</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>402640</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1">
-        <v>401640.0</v>
-      </c>
-      <c r="B141" s="1">
-        <v>402640.0</v>
-      </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>402640</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>403640</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1">
-        <v>402640.0</v>
-      </c>
-      <c r="B142" s="1">
-        <v>403640.0</v>
-      </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>403640</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>411640</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1">
-        <v>403640.0</v>
-      </c>
-      <c r="B143" s="1">
-        <v>411640.0</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E143" s="1">
-        <v>7.0</v>
+      <c r="E143" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H143" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>411640</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>413640</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1">
-        <v>411640.0</v>
-      </c>
-      <c r="B144" s="1">
-        <v>413640.0</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>15</v>
@@ -3192,80 +3232,80 @@
         <v>56</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1">
-        <v>413640.0</v>
-      </c>
-      <c r="B145" s="1">
-        <v>415640.0</v>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>413640</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>415640</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>415640</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>417640</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1">
-        <v>415640.0</v>
-      </c>
-      <c r="B146" s="1">
-        <v>417640.0</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>417640</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>421640</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1">
-        <v>417640.0</v>
-      </c>
-      <c r="B147" s="1">
-        <v>421640.0</v>
-      </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>421640</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>427640</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1">
-        <v>421640.0</v>
-      </c>
-      <c r="B148" s="1">
-        <v>427640.0</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E148" s="1">
-        <v>8.0</v>
+      <c r="E148" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1">
-        <v>427640.0</v>
-      </c>
-      <c r="B149" s="1">
-        <v>428640.0</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>427640</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>428640</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>14</v>
@@ -3274,15 +3314,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1">
-        <v>428640.0</v>
-      </c>
-      <c r="B150" s="1">
-        <v>431640.0</v>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>428640</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>431640</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>14</v>
@@ -3291,15 +3331,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1">
-        <v>431640.0</v>
-      </c>
-      <c r="B151" s="1">
-        <v>432640.0</v>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>431640</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>432640</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>14</v>
@@ -3308,15 +3348,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1">
-        <v>432640.0</v>
-      </c>
-      <c r="B152" s="1">
-        <v>435640.0</v>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>432640</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>435640</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>14</v>
@@ -3325,15 +3365,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1">
-        <v>435640.0</v>
-      </c>
-      <c r="B153" s="1">
-        <v>436640.0</v>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>435640</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>436640</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>15</v>
@@ -3341,13 +3381,16 @@
       <c r="F153" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1">
-        <v>436640.0</v>
-      </c>
-      <c r="B154" s="1">
-        <v>439640.0</v>
+      <c r="H153" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>436640</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>439640</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>58</v>
@@ -3356,12 +3399,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1">
-        <v>439640.0</v>
-      </c>
-      <c r="B155" s="1">
-        <v>440640.0</v>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>439640</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>440640</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>167</v>
@@ -3370,12 +3413,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1">
-        <v>440640.0</v>
-      </c>
-      <c r="B156" s="1">
-        <v>444640.0</v>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>440640</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>444640</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>168</v>
@@ -3384,12 +3427,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1">
-        <v>444640.0</v>
-      </c>
-      <c r="B157" s="1">
-        <v>449640.0</v>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>444640</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>449640</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>169</v>
@@ -3397,8 +3440,8 @@
       <c r="D157" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E157" s="1">
-        <v>9.0</v>
+      <c r="E157" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>53</v>
@@ -3407,12 +3450,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1">
-        <v>449640.0</v>
-      </c>
-      <c r="B158" s="1">
-        <v>451640.0</v>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>449640</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>451640</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>76</v>
@@ -3421,12 +3464,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1">
-        <v>451640.0</v>
-      </c>
-      <c r="B159" s="1">
-        <v>455640.0</v>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>451640</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>455640</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>170</v>
@@ -3435,12 +3478,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1">
-        <v>455640.0</v>
-      </c>
-      <c r="B160" s="1">
-        <v>456640.0</v>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>455640</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>456640</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>171</v>
@@ -3449,12 +3492,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1">
-        <v>456640.0</v>
-      </c>
-      <c r="B161" s="1">
-        <v>459640.0</v>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>456640</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>459640</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>172</v>
@@ -3463,12 +3506,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1">
-        <v>459640.0</v>
-      </c>
-      <c r="B162" s="1">
-        <v>462640.0</v>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>459640</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>462640</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>173</v>
@@ -3476,19 +3519,19 @@
       <c r="D162" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E162" s="1">
-        <v>10.0</v>
+      <c r="E162" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1">
-        <v>462640.0</v>
-      </c>
-      <c r="B163" s="1">
-        <v>468640.0</v>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>462640</v>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>468640</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>174</v>
@@ -3503,12 +3546,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1">
-        <v>468640.0</v>
-      </c>
-      <c r="B164" s="1">
-        <v>476380.0</v>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>468640</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>476380</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>176</v>
@@ -3520,12 +3563,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1">
-        <v>476380.0</v>
-      </c>
-      <c r="B165" s="1">
-        <v>484180.0</v>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>476380</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>484180</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>177</v>
@@ -3540,12 +3583,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1">
-        <v>476380.0</v>
-      </c>
-      <c r="B166" s="1">
-        <v>484180.0</v>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>476380</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>484180</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>13</v>
@@ -3557,12 +3600,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1">
-        <v>484180.0</v>
-      </c>
-      <c r="B167" s="1">
-        <v>491440.0</v>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>484180</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>491440</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>179</v>
@@ -3571,12 +3614,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1">
-        <v>491440.0</v>
-      </c>
-      <c r="B168" s="1">
-        <v>497500.0</v>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>491440</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>497500</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>180</v>
@@ -3584,8 +3627,8 @@
       <c r="D168" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E168" s="1">
-        <v>11.0</v>
+      <c r="E168" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>53</v>
@@ -3594,12 +3637,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1">
-        <v>497500.0</v>
-      </c>
-      <c r="B169" s="1">
-        <v>502500.0</v>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>497500</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>502500</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>182</v>
@@ -3611,12 +3654,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1">
-        <v>502500.0</v>
-      </c>
-      <c r="B170" s="1">
-        <v>506500.0</v>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>502500</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>506500</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>183</v>
@@ -3625,12 +3668,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1">
-        <v>506500.0</v>
-      </c>
-      <c r="B171" s="1">
-        <v>508500.0</v>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>506500</v>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>508500</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>184</v>
@@ -3639,12 +3682,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1">
-        <v>508500.0</v>
-      </c>
-      <c r="B172" s="1">
-        <v>509500.0</v>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>508500</v>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>509500</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>185</v>
@@ -3653,12 +3696,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1">
-        <v>509500.0</v>
-      </c>
-      <c r="B173" s="1">
-        <v>515500.0</v>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>509500</v>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>515500</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>186</v>
@@ -3673,12 +3716,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1">
-        <v>515500.0</v>
-      </c>
-      <c r="B174" s="1">
-        <v>516500.0</v>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>515500</v>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>516500</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>76</v>
@@ -3687,12 +3730,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1">
-        <v>516500.0</v>
-      </c>
-      <c r="B175" s="1">
-        <v>518500.0</v>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>516500</v>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>518500</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>188</v>
@@ -3701,26 +3744,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1">
-        <v>518500.0</v>
-      </c>
-      <c r="B176" s="1">
-        <v>520500.0</v>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>518500</v>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>520500</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1">
-        <v>520500.0</v>
-      </c>
-      <c r="B177" s="1">
-        <v>523500.0</v>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>520500</v>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>523500</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>189</v>
@@ -3729,12 +3772,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1">
-        <v>523500.0</v>
-      </c>
-      <c r="B178" s="1">
-        <v>524500.0</v>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>523500</v>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>524500</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>190</v>
@@ -3743,12 +3786,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1">
-        <v>524500.0</v>
-      </c>
-      <c r="B179" s="1">
-        <v>525500.0</v>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>524500</v>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>525500</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>191</v>
@@ -3757,12 +3800,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1">
-        <v>525500.0</v>
-      </c>
-      <c r="B180" s="1">
-        <v>526500.0</v>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>525500</v>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>526500</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>192</v>
@@ -3771,12 +3814,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1">
-        <v>526500.0</v>
-      </c>
-      <c r="B181" s="1">
-        <v>532260.0</v>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>526500</v>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>532260</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>193</v>
@@ -3785,12 +3828,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1">
-        <v>532260.0</v>
-      </c>
-      <c r="B182" s="1">
-        <v>533500.0</v>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>532260</v>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>533500</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>191</v>
@@ -3799,12 +3842,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1">
-        <v>533500.0</v>
-      </c>
-      <c r="B183" s="1">
-        <v>535500.0</v>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>533500</v>
+      </c>
+      <c r="B183" s="1" t="n">
+        <v>535500</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>194</v>
@@ -3813,12 +3856,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1">
-        <v>535500.0</v>
-      </c>
-      <c r="B184" s="1">
-        <v>538500.0</v>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>535500</v>
+      </c>
+      <c r="B184" s="1" t="n">
+        <v>538500</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>195</v>
@@ -3826,8 +3869,8 @@
       <c r="D184" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E184" s="1">
-        <v>12.0</v>
+      <c r="E184" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>53</v>
@@ -3836,12 +3879,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1">
-        <v>538500.0</v>
-      </c>
-      <c r="B185" s="1">
-        <v>540500.0</v>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>538500</v>
+      </c>
+      <c r="B185" s="1" t="n">
+        <v>540500</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>76</v>
@@ -3850,12 +3893,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1">
-        <v>540500.0</v>
-      </c>
-      <c r="B186" s="1">
-        <v>541500.0</v>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>540500</v>
+      </c>
+      <c r="B186" s="1" t="n">
+        <v>541500</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>58</v>
@@ -3864,12 +3907,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1">
-        <v>541500.0</v>
-      </c>
-      <c r="B187" s="1">
-        <v>542500.0</v>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>541500</v>
+      </c>
+      <c r="B187" s="1" t="n">
+        <v>542500</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>103</v>
@@ -3878,12 +3921,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1">
-        <v>542500.0</v>
-      </c>
-      <c r="B188" s="1">
-        <v>546500.0</v>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>542500</v>
+      </c>
+      <c r="B188" s="1" t="n">
+        <v>546500</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>196</v>
@@ -3892,12 +3935,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1">
-        <v>546500.0</v>
-      </c>
-      <c r="B189" s="1">
-        <v>550500.0</v>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>546500</v>
+      </c>
+      <c r="B189" s="1" t="n">
+        <v>550500</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>197</v>
@@ -3905,8 +3948,8 @@
       <c r="D189" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E189" s="1">
-        <v>13.0</v>
+      <c r="E189" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>53</v>
@@ -3915,12 +3958,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1">
-        <v>550500.0</v>
-      </c>
-      <c r="B190" s="1">
-        <v>552500.0</v>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <v>550500</v>
+      </c>
+      <c r="B190" s="1" t="n">
+        <v>552500</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>199</v>
@@ -3932,12 +3975,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1">
-        <v>552500.0</v>
-      </c>
-      <c r="B191" s="1">
-        <v>553500.0</v>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>552500</v>
+      </c>
+      <c r="B191" s="1" t="n">
+        <v>553500</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>200</v>
@@ -3946,12 +3989,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1">
-        <v>553500.0</v>
-      </c>
-      <c r="B192" s="1">
-        <v>555500.0</v>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <v>553500</v>
+      </c>
+      <c r="B192" s="1" t="n">
+        <v>555500</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>201</v>
@@ -3963,12 +4006,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1">
-        <v>555500.0</v>
-      </c>
-      <c r="B193" s="1">
-        <v>558500.0</v>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>555500</v>
+      </c>
+      <c r="B193" s="1" t="n">
+        <v>558500</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>202</v>
@@ -3983,12 +4026,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1">
-        <v>558500.0</v>
-      </c>
-      <c r="B194" s="1">
-        <v>562500.0</v>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>558500</v>
+      </c>
+      <c r="B194" s="1" t="n">
+        <v>562500</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>204</v>
@@ -3997,12 +4040,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1">
-        <v>562500.0</v>
-      </c>
-      <c r="B195" s="1">
-        <v>563500.0</v>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <v>562500</v>
+      </c>
+      <c r="B195" s="1" t="n">
+        <v>563500</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>58</v>
@@ -4011,12 +4054,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1">
-        <v>563500.0</v>
-      </c>
-      <c r="B196" s="1">
-        <v>566500.0</v>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>563500</v>
+      </c>
+      <c r="B196" s="1" t="n">
+        <v>566500</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>205</v>
@@ -4025,12 +4068,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1">
-        <v>566500.0</v>
-      </c>
-      <c r="B197" s="1">
-        <v>571500.0</v>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <v>566500</v>
+      </c>
+      <c r="B197" s="1" t="n">
+        <v>571500</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>206</v>
@@ -4038,8 +4081,8 @@
       <c r="D197" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E197" s="1">
-        <v>14.0</v>
+      <c r="E197" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>53</v>
@@ -4048,12 +4091,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1">
-        <v>571500.0</v>
-      </c>
-      <c r="B198" s="1">
-        <v>572500.0</v>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="n">
+        <v>571500</v>
+      </c>
+      <c r="B198" s="1" t="n">
+        <v>572500</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>76</v>
@@ -4062,12 +4105,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1">
-        <v>572500.0</v>
-      </c>
-      <c r="B199" s="1">
-        <v>576500.0</v>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="n">
+        <v>572500</v>
+      </c>
+      <c r="B199" s="1" t="n">
+        <v>576500</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>208</v>
@@ -4076,12 +4119,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1">
-        <v>576500.0</v>
-      </c>
-      <c r="B200" s="1">
-        <v>582500.0</v>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="n">
+        <v>576500</v>
+      </c>
+      <c r="B200" s="1" t="n">
+        <v>582500</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>209</v>
@@ -4089,8 +4132,8 @@
       <c r="D200" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E200" s="1">
-        <v>15.0</v>
+      <c r="E200" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>53</v>
@@ -4099,12 +4142,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1">
-        <v>582500.0</v>
-      </c>
-      <c r="B201" s="1">
-        <v>583500.0</v>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <v>582500</v>
+      </c>
+      <c r="B201" s="1" t="n">
+        <v>583500</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>76</v>
@@ -4113,12 +4156,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1">
-        <v>583500.0</v>
-      </c>
-      <c r="B202" s="1">
-        <v>586500.0</v>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="n">
+        <v>583500</v>
+      </c>
+      <c r="B202" s="1" t="n">
+        <v>586500</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>211</v>
@@ -4127,12 +4170,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1">
-        <v>586500.0</v>
-      </c>
-      <c r="B203" s="1">
-        <v>589500.0</v>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="n">
+        <v>586500</v>
+      </c>
+      <c r="B203" s="1" t="n">
+        <v>589500</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>212</v>
@@ -4141,12 +4184,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1">
-        <v>589500.0</v>
-      </c>
-      <c r="B204" s="1">
-        <v>592500.0</v>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="n">
+        <v>589500</v>
+      </c>
+      <c r="B204" s="1" t="n">
+        <v>592500</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>213</v>
@@ -4155,12 +4198,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1">
-        <v>592500.0</v>
-      </c>
-      <c r="B205" s="1">
-        <v>594500.0</v>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="n">
+        <v>592500</v>
+      </c>
+      <c r="B205" s="1" t="n">
+        <v>594500</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>214</v>
@@ -4169,12 +4212,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1">
-        <v>594500.0</v>
-      </c>
-      <c r="B206" s="1">
-        <v>595500.0</v>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="n">
+        <v>594500</v>
+      </c>
+      <c r="B206" s="1" t="n">
+        <v>595500</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>215</v>
@@ -4183,12 +4226,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1">
-        <v>595500.0</v>
-      </c>
-      <c r="B207" s="1">
-        <v>598500.0</v>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="n">
+        <v>595500</v>
+      </c>
+      <c r="B207" s="1" t="n">
+        <v>598500</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>216</v>
@@ -4197,12 +4240,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1">
-        <v>598500.0</v>
-      </c>
-      <c r="B208" s="1">
-        <v>599500.0</v>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="n">
+        <v>598500</v>
+      </c>
+      <c r="B208" s="1" t="n">
+        <v>599500</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>217</v>
@@ -4211,12 +4254,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1">
-        <v>599500.0</v>
-      </c>
-      <c r="B209" s="1">
-        <v>602500.0</v>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="n">
+        <v>599500</v>
+      </c>
+      <c r="B209" s="1" t="n">
+        <v>602500</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>218</v>
@@ -4225,12 +4268,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1">
-        <v>602500.0</v>
-      </c>
-      <c r="B210" s="1">
-        <v>605500.0</v>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="n">
+        <v>602500</v>
+      </c>
+      <c r="B210" s="1" t="n">
+        <v>605500</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>219</v>
@@ -4239,12 +4282,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1">
-        <v>605500.0</v>
-      </c>
-      <c r="B211" s="1">
-        <v>607500.0</v>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="n">
+        <v>605500</v>
+      </c>
+      <c r="B211" s="1" t="n">
+        <v>607500</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>220</v>
@@ -4253,12 +4296,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1">
-        <v>607500.0</v>
-      </c>
-      <c r="B212" s="1">
-        <v>610500.0</v>
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="n">
+        <v>607500</v>
+      </c>
+      <c r="B212" s="1" t="n">
+        <v>610500</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>221</v>
@@ -4266,8 +4309,8 @@
       <c r="D212" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E212" s="1">
-        <v>16.0</v>
+      <c r="E212" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>53</v>
@@ -4276,12 +4319,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1">
-        <v>610500.0</v>
-      </c>
-      <c r="B213" s="1">
-        <v>615500.0</v>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="n">
+        <v>610500</v>
+      </c>
+      <c r="B213" s="1" t="n">
+        <v>615500</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>204</v>
@@ -4290,12 +4333,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1">
-        <v>615500.0</v>
-      </c>
-      <c r="B214" s="1">
-        <v>617500.0</v>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="n">
+        <v>615500</v>
+      </c>
+      <c r="B214" s="1" t="n">
+        <v>617500</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>223</v>
@@ -4304,12 +4347,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1">
-        <v>617500.0</v>
-      </c>
-      <c r="B215" s="1">
-        <v>619500.0</v>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="n">
+        <v>617500</v>
+      </c>
+      <c r="B215" s="1" t="n">
+        <v>619500</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>224</v>
@@ -4318,12 +4361,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1">
-        <v>619500.0</v>
-      </c>
-      <c r="B216" s="1">
-        <v>622500.0</v>
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="n">
+        <v>619500</v>
+      </c>
+      <c r="B216" s="1" t="n">
+        <v>622500</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>223</v>
@@ -4332,12 +4375,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1">
-        <v>622500.0</v>
-      </c>
-      <c r="B217" s="1">
-        <v>624500.0</v>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="n">
+        <v>622500</v>
+      </c>
+      <c r="B217" s="1" t="n">
+        <v>624500</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>225</v>
@@ -4346,12 +4389,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1">
-        <v>624500.0</v>
-      </c>
-      <c r="B218" s="1">
-        <v>625500.0</v>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="n">
+        <v>624500</v>
+      </c>
+      <c r="B218" s="1" t="n">
+        <v>625500</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>217</v>
@@ -4360,12 +4403,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1">
-        <v>625500.0</v>
-      </c>
-      <c r="B219" s="1">
-        <v>629500.0</v>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="n">
+        <v>625500</v>
+      </c>
+      <c r="B219" s="1" t="n">
+        <v>629500</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>226</v>
@@ -4374,12 +4417,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1">
-        <v>629500.0</v>
-      </c>
-      <c r="B220" s="1">
-        <v>634500.0</v>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="n">
+        <v>629500</v>
+      </c>
+      <c r="B220" s="1" t="n">
+        <v>634500</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>227</v>
@@ -4387,8 +4430,8 @@
       <c r="D220" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E220" s="1">
-        <v>17.0</v>
+      <c r="E220" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>53</v>
@@ -4397,12 +4440,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1">
-        <v>634500.0</v>
-      </c>
-      <c r="B221" s="1">
-        <v>635800.0</v>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="n">
+        <v>634500</v>
+      </c>
+      <c r="B221" s="1" t="n">
+        <v>635800</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>229</v>
@@ -4414,12 +4457,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1">
-        <v>635800.0</v>
-      </c>
-      <c r="B222" s="1">
-        <v>636500.0</v>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="n">
+        <v>635800</v>
+      </c>
+      <c r="B222" s="1" t="n">
+        <v>636500</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>230</v>
@@ -4428,12 +4471,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1">
-        <v>636500.0</v>
-      </c>
-      <c r="B223" s="1">
-        <v>638000.0</v>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="n">
+        <v>636500</v>
+      </c>
+      <c r="B223" s="1" t="n">
+        <v>638000</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>58</v>
@@ -4442,12 +4485,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1">
-        <v>638000.0</v>
-      </c>
-      <c r="B224" s="1">
-        <v>640000.0</v>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="n">
+        <v>638000</v>
+      </c>
+      <c r="B224" s="1" t="n">
+        <v>640000</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>231</v>
@@ -4456,12 +4499,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1">
-        <v>640000.0</v>
-      </c>
-      <c r="B225" s="1">
-        <v>641500.0</v>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="n">
+        <v>640000</v>
+      </c>
+      <c r="B225" s="1" t="n">
+        <v>641500</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>232</v>
@@ -4470,12 +4513,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1">
-        <v>641500.0</v>
-      </c>
-      <c r="B226" s="1">
-        <v>646000.0</v>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="n">
+        <v>641500</v>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>646000</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>233</v>
@@ -4483,8 +4526,8 @@
       <c r="D226" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E226" s="1">
-        <v>18.0</v>
+      <c r="E226" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>53</v>
@@ -4493,12 +4536,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1">
-        <v>646000.0</v>
-      </c>
-      <c r="B227" s="1">
-        <v>648000.0</v>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="n">
+        <v>646000</v>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>648000</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>76</v>
@@ -4507,12 +4550,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1">
-        <v>648000.0</v>
-      </c>
-      <c r="B228" s="1">
-        <v>653000.0</v>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="n">
+        <v>648000</v>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>653000</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>235</v>
@@ -4521,12 +4564,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1">
-        <v>653000.0</v>
-      </c>
-      <c r="B229" s="1">
-        <v>655000.0</v>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="n">
+        <v>653000</v>
+      </c>
+      <c r="B229" s="1" t="n">
+        <v>655000</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>236</v>
@@ -4535,12 +4578,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1">
-        <v>655000.0</v>
-      </c>
-      <c r="B230" s="1">
-        <v>658000.0</v>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="n">
+        <v>655000</v>
+      </c>
+      <c r="B230" s="1" t="n">
+        <v>658000</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>237</v>
@@ -4549,12 +4592,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1">
-        <v>658000.0</v>
-      </c>
-      <c r="B231" s="1">
-        <v>664000.0</v>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="n">
+        <v>658000</v>
+      </c>
+      <c r="B231" s="1" t="n">
+        <v>664000</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>169</v>
@@ -4562,8 +4605,8 @@
       <c r="D231" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E231" s="1">
-        <v>19.0</v>
+      <c r="E231" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>53</v>
@@ -4572,12 +4615,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1">
-        <v>664000.0</v>
-      </c>
-      <c r="B232" s="1">
-        <v>665000.0</v>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="n">
+        <v>664000</v>
+      </c>
+      <c r="B232" s="1" t="n">
+        <v>665000</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>76</v>
@@ -4586,12 +4629,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1">
-        <v>665000.0</v>
-      </c>
-      <c r="B233" s="1">
-        <v>666000.0</v>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="n">
+        <v>665000</v>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>666000</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>76</v>
@@ -4600,12 +4643,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="1">
-        <v>666000.0</v>
-      </c>
-      <c r="B234" s="1">
-        <v>667000.0</v>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="n">
+        <v>666000</v>
+      </c>
+      <c r="B234" s="1" t="n">
+        <v>667000</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>238</v>
@@ -4614,12 +4657,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="1">
-        <v>667000.0</v>
-      </c>
-      <c r="B235" s="1">
-        <v>668000.0</v>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="n">
+        <v>667000</v>
+      </c>
+      <c r="B235" s="1" t="n">
+        <v>668000</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>239</v>
@@ -4628,12 +4671,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="1">
-        <v>668000.0</v>
-      </c>
-      <c r="B236" s="1">
-        <v>671000.0</v>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="n">
+        <v>668000</v>
+      </c>
+      <c r="B236" s="1" t="n">
+        <v>671000</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>240</v>
@@ -4642,12 +4685,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="1">
-        <v>671000.0</v>
-      </c>
-      <c r="B237" s="1">
-        <v>673000.0</v>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="n">
+        <v>671000</v>
+      </c>
+      <c r="B237" s="1" t="n">
+        <v>673000</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>241</v>
@@ -4656,12 +4699,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="1">
-        <v>673000.0</v>
-      </c>
-      <c r="B238" s="1">
-        <v>676000.0</v>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="n">
+        <v>673000</v>
+      </c>
+      <c r="B238" s="1" t="n">
+        <v>676000</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>242</v>
@@ -4670,12 +4713,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="1">
-        <v>676000.0</v>
-      </c>
-      <c r="B239" s="1">
-        <v>680000.0</v>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="n">
+        <v>676000</v>
+      </c>
+      <c r="B239" s="1" t="n">
+        <v>680000</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>243</v>
@@ -4684,12 +4727,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="1">
-        <v>680000.0</v>
-      </c>
-      <c r="B240" s="1">
-        <v>682000.0</v>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="n">
+        <v>680000</v>
+      </c>
+      <c r="B240" s="1" t="n">
+        <v>682000</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>244</v>
@@ -4698,12 +4741,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1">
-        <v>682000.0</v>
-      </c>
-      <c r="B241" s="1">
-        <v>685000.0</v>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="n">
+        <v>682000</v>
+      </c>
+      <c r="B241" s="1" t="n">
+        <v>685000</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>245</v>
@@ -4713,6 +4756,12 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/expt_2/raw_transcripts/game44.xlsx
+++ b/data/expt_2/raw_transcripts/game44.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">R</t>
   </si>
   <si>
-    <t xml:space="preserve">Thank you [apple255] and [pear257] for playing my game.</t>
+    <t xml:space="preserve">Thank you [id94] and [id95] for playing my game.</t>
   </si>
   <si>
     <t xml:space="preserve">Today we're going to be playing a really fun matching game.</t>
@@ -64,10 +64,10 @@
     <t xml:space="preserve">Yeah.</t>
   </si>
   <si>
-    <t xml:space="preserve">apple255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pear257</t>
+    <t xml:space="preserve">id94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id95</t>
   </si>
   <si>
     <t xml:space="preserve"> But before we do that, we're going to practice touching our iPads by playing a really fun bubble popping game.</t>
@@ -100,10 +100,10 @@
     <t xml:space="preserve">Touch them to make them pop.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Good job, [apple255].</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Good job, [pear257].</t>
+    <t xml:space="preserve"> Good job, [id94].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good job, [id95].</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, you guys did so good with the bubble game.</t>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">to explain our matching game okay so in the game we're gonna help our friends</t>
   </si>
   <si>
-    <t xml:space="preserve">Smurphy this is Smurphy do you want to say hi to Smurphy hi [pear257] hi [apple255]</t>
+    <t xml:space="preserve">Smurphy this is Smurphy do you want to say hi to Smurphy hi [id95] hi [id94]</t>
   </si>
   <si>
     <t xml:space="preserve">so in this game you're gonna tell Smurphy about what you see on your screen</t>
@@ -172,10 +172,10 @@
     <t xml:space="preserve"> Okay, so who has the square around their screen?</t>
   </si>
   <si>
-    <t xml:space="preserve"> That's you, so you're the teller, [pear257], and you're the guesser, [apple255].</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> All right, so [pear257], can you tell [apple255] what's in the square on your screen?</t>
+    <t xml:space="preserve"> That's you, so you're the teller, [id95], and you're the guesser, [id94].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All right, so [id95], can you tell [id94] what's in the square on your screen?</t>
   </si>
   <si>
     <t xml:space="preserve">Banana.</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">You guys got it right.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Okay, so now you are going to be the guesser, [pear257], and you're the teller, [apple255].</t>
+    <t xml:space="preserve"> Okay, so now you are going to be the guesser, [id95], and you're the teller, [id94].</t>
   </si>
   <si>
     <t xml:space="preserve"> It's a, it's a, it's a, it's a bird.</t>
@@ -229,13 +229,13 @@
     <t xml:space="preserve"> Good job, you got it right!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Okay, so now you're going to be helping Smurphy guess, [apple255].</t>
+    <t xml:space="preserve"> Okay, so now you're going to be helping Smurphy guess, [id94].</t>
   </si>
   <si>
     <t xml:space="preserve">You're the guesser and you're the teller.</t>
   </si>
   <si>
-    <t xml:space="preserve">[pear257].</t>
+    <t xml:space="preserve">[id95].</t>
   </si>
   <si>
     <t xml:space="preserve">Mine is a boat.</t>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">Now you're going to be...</t>
   </si>
   <si>
-    <t xml:space="preserve"> You're going to be the guesser, [pear257], and you're the teller, [apple255].</t>
+    <t xml:space="preserve"> You're going to be the guesser, [id95], and you're the teller, [id94].</t>
   </si>
   <si>
     <t xml:space="preserve">I like this doggy.</t>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">Good job! Nice!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Okay, now you're the guesser, [apple255], and you're the teller, [pear257].</t>
+    <t xml:space="preserve"> Okay, now you're the guesser, [id94], and you're the teller, [id95].</t>
   </si>
   <si>
     <t xml:space="preserve">My is what?</t>
@@ -322,7 +322,7 @@
     <t xml:space="preserve">Describe what's in there.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tell [apple255] what you see in the square.</t>
+    <t xml:space="preserve">Tell [id94] what you see in the square.</t>
   </si>
   <si>
     <t xml:space="preserve">The thing is, um, a camera.</t>
@@ -334,7 +334,7 @@
     <t xml:space="preserve">Okay.</t>
   </si>
   <si>
-    <t xml:space="preserve"> And now, [apple255], you're going to guess based on what she told you.</t>
+    <t xml:space="preserve"> And now, [id94], you're going to guess based on what she told you.</t>
   </si>
   <si>
     <t xml:space="preserve">It's this one or this one?</t>
@@ -352,7 +352,7 @@
     <t xml:space="preserve">We'll help Smurphy guess the right one.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Okay, so now you're the guesser, [pear257], and you're the teller, [apple255].</t>
+    <t xml:space="preserve"> Okay, so now you're the guesser, [id95], and you're the teller, [id94].</t>
   </si>
   <si>
     <t xml:space="preserve">Why is his poppy</t>
@@ -382,10 +382,10 @@
     <t xml:space="preserve"> Yeah, we'll get him a band-aid.</t>
   </si>
   <si>
-    <t xml:space="preserve">[apple255]'s going to tell you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pay attention to [apple255].</t>
+    <t xml:space="preserve">[id94]'s going to tell you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pay attention to [id94].</t>
   </si>
   <si>
     <t xml:space="preserve">I don't know what it is, I don't know which one it is.</t>
@@ -412,7 +412,7 @@
     <t xml:space="preserve">I'm winning!</t>
   </si>
   <si>
-    <t xml:space="preserve"> You're gonna be the guesser, [apple255]t, and you're the teller, [pear257].</t>
+    <t xml:space="preserve"> You're gonna be the guesser, [id94]t, and you're the teller, [id95].</t>
   </si>
   <si>
     <t xml:space="preserve">So tell her what you see in the box.</t>
@@ -460,7 +460,7 @@
     <t xml:space="preserve">Good.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Okay, now you're the guesser [pear257] and you're the teller, [apple255].</t>
+    <t xml:space="preserve"> Okay, now you're the guesser [id95] and you're the teller, [id94].</t>
   </si>
   <si>
     <t xml:space="preserve">I like the pink one because pink is my favorite color.</t>
@@ -481,7 +481,7 @@
     <t xml:space="preserve">Do you like it? Thank you.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Okay, [apple255]'s going to tell you.</t>
+    <t xml:space="preserve"> Okay, [id94]'s going to tell you.</t>
   </si>
   <si>
     <t xml:space="preserve"> It kind of looks like a pastry or something, but it has legs.</t>
@@ -499,7 +499,7 @@
     <t xml:space="preserve">I'm winning right now.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Now [apple255] is the guesser and you're the teller, [pear257].</t>
+    <t xml:space="preserve"> Now [id94] is the guesser and you're the teller, [id95].</t>
   </si>
   <si>
     <t xml:space="preserve">Looks like a tree but something like is jumping and they have legs.</t>
@@ -526,19 +526,19 @@
     <t xml:space="preserve">Okay!</t>
   </si>
   <si>
-    <t xml:space="preserve">Now you're the guesser [pear257] and you're the teller [apple255].</t>
+    <t xml:space="preserve">Now you're the guesser [id95] and you're the teller [id94].</t>
   </si>
   <si>
     <t xml:space="preserve">It's something that kind of looks like a boat or something.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Okay, now you're the guesser [apple255].</t>
+    <t xml:space="preserve"> Okay, now you're the guesser [id94].</t>
   </si>
   <si>
     <t xml:space="preserve">You're like a baby.</t>
   </si>
   <si>
-    <t xml:space="preserve"> And you're the teller [pear257], yeah, like a baby.</t>
+    <t xml:space="preserve"> And you're the teller [id95], yeah, like a baby.</t>
   </si>
   <si>
     <t xml:space="preserve"> It looks like something that holding a p-,</t>
@@ -559,7 +559,7 @@
     <t xml:space="preserve">has one leg it's like and then someone and then like one leg so it's giving with their leg to someone else</t>
   </si>
   <si>
-    <t xml:space="preserve">good job okay now you're the guesser [pear257] and you're the teller [apple255]</t>
+    <t xml:space="preserve">good job okay now you're the guesser [id95] and you're the teller [id94]</t>
   </si>
   <si>
     <t xml:space="preserve">um it's something that kind of looks like it looks like it's someone like a plate or something giving it to someone</t>
@@ -589,7 +589,7 @@
     <t xml:space="preserve">You guys are doing such a good job.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Now you're the guesser, [apple255]igh, and you're the teller, [pear257].</t>
+    <t xml:space="preserve"> Now you're the guesser, [id94]igh, and you're the teller, [id95].</t>
   </si>
   <si>
     <t xml:space="preserve">I'm winning.</t>
@@ -598,10 +598,10 @@
     <t xml:space="preserve">You guys are both winning.</t>
   </si>
   <si>
-    <t xml:space="preserve">I'm winning because [apple255].</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> because [apple255], last time [apple255] was like something, but now I'm winning.</t>
+    <t xml:space="preserve">I'm winning because [id94].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> because [id94], last time [id94] was like something, but now I'm winning.</t>
   </si>
   <si>
     <t xml:space="preserve"> Here, okay, now you're going to tell her what you see.</t>
@@ -610,7 +610,7 @@
     <t xml:space="preserve">I see something like a boat.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Now [pear257], you're the guesser and you're the teller, [apple255].</t>
+    <t xml:space="preserve"> Now [id95], you're the guesser and you're the teller, [id94].</t>
   </si>
   <si>
     <t xml:space="preserve">It's something that kind of looks like it's flying.</t>
@@ -637,16 +637,16 @@
     <t xml:space="preserve"> Woo, good job!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Okay, now you're the guesser [apple255] and you're the teller.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It looks like someone holding a plate and giving it to someone with [apple255].</t>
+    <t xml:space="preserve"> Okay, now you're the guesser [id94] and you're the teller.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It looks like someone holding a plate and giving it to someone with [id94].</t>
   </si>
   <si>
     <t xml:space="preserve">someone holding a plate and giving it to someone</t>
   </si>
   <si>
-    <t xml:space="preserve"> Okay, now you're the guesser [pear257] and you're the teller [apple255]e.</t>
+    <t xml:space="preserve"> Okay, now you're the guesser [id95] and you're the teller [id94]e.</t>
   </si>
   <si>
     <t xml:space="preserve">It's someone that kind of looks like it's walking.</t>
@@ -676,13 +676,13 @@
     <t xml:space="preserve">Thank you.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Okay, now you're going to be the guesser, [apple255], and you're the...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alright, sit down. You're going to be the teller, okay, [pear257]?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell [apple255] what you see?</t>
+    <t xml:space="preserve"> Okay, now you're going to be the guesser, [id94], and you're the...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alright, sit down. You're going to be the teller, okay, [id95]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell [id94] what you see?</t>
   </si>
   <si>
     <t xml:space="preserve">Someone's jumping.</t>
@@ -700,7 +700,7 @@
     <t xml:space="preserve">We need Smurphy to play.</t>
   </si>
   <si>
-    <t xml:space="preserve"> You're going to be the guesser now, [pear257], and you're the teller, [apple255].</t>
+    <t xml:space="preserve"> You're going to be the guesser now, [id95], and you're the teller, [id94].</t>
   </si>
   <si>
     <t xml:space="preserve"> It's something, someone that's walking.</t>
@@ -715,10 +715,10 @@
     <t xml:space="preserve">Woo!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Okay, now you're the guesser, [apple255].</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You're the teller, [pear257].</t>
+    <t xml:space="preserve"> Okay, now you're the guesser, [id94].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You're the teller, [id95].</t>
   </si>
   <si>
     <t xml:space="preserve">Is someone that giving a plate to someone with one hand.</t>
@@ -733,7 +733,7 @@
     <t xml:space="preserve">No!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Now you're the guesser, [pear257], and you're the teller, [apple255]?</t>
+    <t xml:space="preserve"> Now you're the guesser, [id95], and you're the teller, [id94]?</t>
   </si>
   <si>
     <t xml:space="preserve">You guys are so fast.</t>
@@ -840,16 +840,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1045,3713 +1049,3713 @@
   <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I237" activeCellId="0" sqref="I237"/>
+      <selection pane="bottomLeft" activeCell="G203" activeCellId="0" sqref="G203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>9000</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>9000</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>13000</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>13000</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>14000</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>14000</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>14000</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>21000</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>21000</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>22000</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>22000</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>29000</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>29000</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>31000</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>31000</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>34000</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>34000</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>36000</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>36000</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>37000</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>37000</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="2" t="n">
         <v>38000</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>38000</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="2" t="n">
         <v>39000</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>39000</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="2" t="n">
         <v>40000</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>40000</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="2" t="n">
         <v>42000</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>42000</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>43000</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>43000</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="2" t="n">
         <v>46000</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>46000</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="2" t="n">
         <v>49000</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>49000</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <v>55000</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>55000</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="2" t="n">
         <v>58000</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>58000</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="2" t="n">
         <v>59000</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>59000</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="2" t="n">
         <v>65360</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>65360</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="2" t="n">
         <v>71000</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>71000</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="2" t="n">
         <v>76160</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>76160</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="2" t="n">
         <v>81860</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>81860</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="2" t="n">
         <v>87500</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>87500</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="2" t="n">
         <v>93120</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>93120</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="2" t="n">
         <v>98260</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>98260</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="2" t="n">
         <v>102760</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>102760</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="2" t="n">
         <v>106820</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>106820</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="2" t="n">
         <v>113260</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>113260</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="2" t="n">
         <v>114300</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>114720</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="2" t="n">
         <v>116840</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>116920</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="2" t="n">
         <v>118840</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>118840</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="2" t="n">
         <v>120740</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>121400</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="2" t="n">
         <v>125360</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>125600</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="2" t="n">
         <v>128300</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>128460</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="2" t="n">
         <v>128880</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>129380</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="2" t="n">
         <v>130700</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>131620</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="2" t="n">
         <v>135060</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>135060</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="2" t="n">
         <v>139180</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>139740</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="2" t="n">
         <v>143140</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>144720</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="2" t="n">
         <v>150720</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>151980</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="2" t="n">
         <v>152360</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>153960</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="2" t="n">
         <v>157440</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>158020</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="2" t="n">
         <v>158520</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>159060</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="2" t="n">
         <v>159940</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>161520</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="2" t="n">
         <v>162580</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>162760</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="2" t="n">
         <v>163660</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>163660</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="2" t="n">
         <v>169060</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>171560</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="2" t="n">
         <v>177380</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="1" t="n">
+      <c r="E55" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>180100</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="2" t="n">
         <v>183420</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>184700</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="2" t="n">
         <v>185660</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H57" s="1"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>186040</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="2" t="n">
         <v>188760</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>188760</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="2" t="n">
         <v>189760</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>189760</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="2" t="n">
         <v>191760</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>191760</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="2" t="n">
         <v>195760</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>195760</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="2" t="n">
         <v>198760</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="2" t="n">
         <v>198760</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="2" t="n">
         <v>200760</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="2" t="n">
         <v>200760</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="2" t="n">
         <v>201760</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="2" t="n">
         <v>201760</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="2" t="n">
         <v>205760</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="1" t="n">
+      <c r="E65" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="2" t="n">
         <v>205760</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="2" t="n">
         <v>209760</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="2" t="n">
         <v>209760</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="2" t="n">
         <v>212760</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>212760</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="2" t="n">
         <v>214760</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="2" t="n">
         <v>214760</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="2" t="n">
         <v>215760</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>215760</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="2" t="n">
         <v>216760</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="2" t="n">
         <v>216760</v>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B71" s="2" t="n">
         <v>217760</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>217760</v>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B72" s="2" t="n">
         <v>222000</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>222000</v>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="B73" s="2" t="n">
         <v>224000</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="2" t="n">
         <v>224000</v>
       </c>
-      <c r="B74" s="1" t="n">
+      <c r="B74" s="2" t="n">
         <v>226000</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="1" t="n">
+      <c r="E74" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="2" t="n">
         <v>229520</v>
       </c>
-      <c r="B75" s="1" t="n">
+      <c r="B75" s="2" t="n">
         <v>231200</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="2" t="n">
         <v>231200</v>
       </c>
-      <c r="B76" s="1" t="n">
+      <c r="B76" s="2" t="n">
         <v>235520</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="2" t="n">
         <v>235520</v>
       </c>
-      <c r="B77" s="1" t="n">
+      <c r="B77" s="2" t="n">
         <v>238480</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E77" s="1" t="n">
+      <c r="E77" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="2" t="n">
         <v>240480</v>
       </c>
-      <c r="B78" s="1" t="n">
+      <c r="B78" s="2" t="n">
         <v>241920</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="2" t="n">
         <v>244000</v>
       </c>
-      <c r="B79" s="1" t="n">
+      <c r="B79" s="2" t="n">
         <v>244640</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="2" t="n">
         <v>244640</v>
       </c>
-      <c r="B80" s="1" t="n">
+      <c r="B80" s="2" t="n">
         <v>249640</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="2" t="n">
         <v>249640</v>
       </c>
-      <c r="B81" s="1" t="n">
+      <c r="B81" s="2" t="n">
         <v>252640</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="2" t="n">
         <v>249640</v>
       </c>
-      <c r="B82" s="1" t="n">
+      <c r="B82" s="2" t="n">
         <v>252640</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="2" t="n">
         <v>252640</v>
       </c>
-      <c r="B83" s="1" t="n">
+      <c r="B83" s="2" t="n">
         <v>255640</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="2" t="n">
         <v>255640</v>
       </c>
-      <c r="B84" s="1" t="n">
+      <c r="B84" s="2" t="n">
         <v>257640</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="2" t="n">
         <v>257640</v>
       </c>
-      <c r="B85" s="1" t="n">
+      <c r="B85" s="2" t="n">
         <v>258640</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="2" t="n">
         <v>258640</v>
       </c>
-      <c r="B86" s="1" t="n">
+      <c r="B86" s="2" t="n">
         <v>260640</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="2" t="n">
         <v>260640</v>
       </c>
-      <c r="B87" s="1" t="n">
+      <c r="B87" s="2" t="n">
         <v>261640</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="2" t="n">
         <v>261640</v>
       </c>
-      <c r="B88" s="1" t="n">
+      <c r="B88" s="2" t="n">
         <v>262640</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="2" t="n">
         <v>262640</v>
       </c>
-      <c r="B89" s="1" t="n">
+      <c r="B89" s="2" t="n">
         <v>264640</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="2" t="n">
         <v>268640</v>
       </c>
-      <c r="B90" s="1" t="n">
+      <c r="B90" s="2" t="n">
         <v>273640</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="2" t="n">
         <v>273640</v>
       </c>
-      <c r="B91" s="1" t="n">
+      <c r="B91" s="2" t="n">
         <v>280640</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H91" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="2" t="n">
         <v>280640</v>
       </c>
-      <c r="B92" s="1" t="n">
+      <c r="B92" s="2" t="n">
         <v>282640</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="2" t="n">
         <v>282640</v>
       </c>
-      <c r="B93" s="1" t="n">
+      <c r="B93" s="2" t="n">
         <v>286640</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="2" t="n">
         <v>286640</v>
       </c>
-      <c r="B94" s="1" t="n">
+      <c r="B94" s="2" t="n">
         <v>288640</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="2" t="n">
         <v>288640</v>
       </c>
-      <c r="B95" s="1" t="n">
+      <c r="B95" s="2" t="n">
         <v>289640</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="2" t="n">
         <v>289640</v>
       </c>
-      <c r="B96" s="1" t="n">
+      <c r="B96" s="2" t="n">
         <v>292640</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="2" t="n">
         <v>292640</v>
       </c>
-      <c r="B97" s="1" t="n">
+      <c r="B97" s="2" t="n">
         <v>295640</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="2" t="n">
         <v>295640</v>
       </c>
-      <c r="B98" s="1" t="n">
+      <c r="B98" s="2" t="n">
         <v>297640</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="2" t="n">
         <v>297640</v>
       </c>
-      <c r="B99" s="1" t="n">
+      <c r="B99" s="2" t="n">
         <v>301640</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="2" t="n">
         <v>301640</v>
       </c>
-      <c r="B100" s="1" t="n">
+      <c r="B100" s="2" t="n">
         <v>302640</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="2" t="n">
         <v>302640</v>
       </c>
-      <c r="B101" s="1" t="n">
+      <c r="B101" s="2" t="n">
         <v>304640</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="2" t="n">
         <v>305640</v>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B102" s="2" t="n">
         <v>306640</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="2" t="n">
         <v>306640</v>
       </c>
-      <c r="B103" s="1" t="n">
+      <c r="B103" s="2" t="n">
         <v>307640</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="2" t="n">
         <v>307640</v>
       </c>
-      <c r="B104" s="1" t="n">
+      <c r="B104" s="2" t="n">
         <v>309640</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="2" t="n">
         <v>309640</v>
       </c>
-      <c r="B105" s="1" t="n">
+      <c r="B105" s="2" t="n">
         <v>310640</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="2" t="n">
         <v>312640</v>
       </c>
-      <c r="B106" s="1" t="n">
+      <c r="B106" s="2" t="n">
         <v>315640</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="2" t="n">
         <v>315640</v>
       </c>
-      <c r="B107" s="1" t="n">
+      <c r="B107" s="2" t="n">
         <v>317640</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="2" t="n">
         <v>317640</v>
       </c>
-      <c r="B108" s="1" t="n">
+      <c r="B108" s="2" t="n">
         <v>319640</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="2" t="n">
         <v>319640</v>
       </c>
-      <c r="B109" s="1" t="n">
+      <c r="B109" s="2" t="n">
         <v>321640</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="2" t="n">
         <v>321640</v>
       </c>
-      <c r="B110" s="1" t="n">
+      <c r="B110" s="2" t="n">
         <v>323640</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="2" t="n">
         <v>323640</v>
       </c>
-      <c r="B111" s="1" t="n">
+      <c r="B111" s="2" t="n">
         <v>324640</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="2" t="n">
         <v>324640</v>
       </c>
-      <c r="B112" s="1" t="n">
+      <c r="B112" s="2" t="n">
         <v>325640</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="2" t="n">
         <v>325640</v>
       </c>
-      <c r="B113" s="1" t="n">
+      <c r="B113" s="2" t="n">
         <v>328640</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E113" s="1" t="n">
+      <c r="E113" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="2" t="n">
         <v>328640</v>
       </c>
-      <c r="B114" s="1" t="n">
+      <c r="B114" s="2" t="n">
         <v>330640</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="2" t="n">
         <v>330640</v>
       </c>
-      <c r="B115" s="1" t="n">
+      <c r="B115" s="2" t="n">
         <v>336640</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H115" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="2" t="n">
         <v>340640</v>
       </c>
-      <c r="B116" s="1" t="n">
+      <c r="B116" s="2" t="n">
         <v>342640</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="2" t="n">
         <v>342640</v>
       </c>
-      <c r="B117" s="1" t="n">
+      <c r="B117" s="2" t="n">
         <v>346640</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="2" t="n">
         <v>346640</v>
       </c>
-      <c r="B118" s="1" t="n">
+      <c r="B118" s="2" t="n">
         <v>347640</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="2" t="n">
         <v>347640</v>
       </c>
-      <c r="B119" s="1" t="n">
+      <c r="B119" s="2" t="n">
         <v>348640</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="2" t="n">
         <v>348640</v>
       </c>
-      <c r="B120" s="1" t="n">
+      <c r="B120" s="2" t="n">
         <v>351640</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="2" t="n">
         <v>351640</v>
       </c>
-      <c r="B121" s="1" t="n">
+      <c r="B121" s="2" t="n">
         <v>353640</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="2" t="n">
         <v>353640</v>
       </c>
-      <c r="B122" s="1" t="n">
+      <c r="B122" s="2" t="n">
         <v>356640</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E122" s="1" t="n">
+      <c r="E122" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F122" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H122" s="1"/>
+      <c r="H122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="2" t="n">
         <v>358640</v>
       </c>
-      <c r="B123" s="1" t="n">
+      <c r="B123" s="2" t="n">
         <v>360640</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F123" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="H123" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="2" t="n">
         <v>360640</v>
       </c>
-      <c r="B124" s="1" t="n">
+      <c r="B124" s="2" t="n">
         <v>362640</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="2" t="n">
         <v>362640</v>
       </c>
-      <c r="B125" s="1" t="n">
+      <c r="B125" s="2" t="n">
         <v>364640</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="2" t="n">
         <v>364640</v>
       </c>
-      <c r="B126" s="1" t="n">
+      <c r="B126" s="2" t="n">
         <v>365640</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="2" t="n">
         <v>365640</v>
       </c>
-      <c r="B127" s="1" t="n">
+      <c r="B127" s="2" t="n">
         <v>367640</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F127" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="2" t="n">
         <v>367640</v>
       </c>
-      <c r="B128" s="1" t="n">
+      <c r="B128" s="2" t="n">
         <v>369640</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="2" t="n">
         <v>369640</v>
       </c>
-      <c r="B129" s="1" t="n">
+      <c r="B129" s="2" t="n">
         <v>372640</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="2" t="n">
         <v>372640</v>
       </c>
-      <c r="B130" s="1" t="n">
+      <c r="B130" s="2" t="n">
         <v>376640</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F130" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="H130" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="2" t="n">
         <v>376640</v>
       </c>
-      <c r="B131" s="1" t="n">
+      <c r="B131" s="2" t="n">
         <v>378640</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F131" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="2" t="n">
         <v>378640</v>
       </c>
-      <c r="B132" s="1" t="n">
+      <c r="B132" s="2" t="n">
         <v>380640</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="2" t="n">
         <v>380640</v>
       </c>
-      <c r="B133" s="1" t="n">
+      <c r="B133" s="2" t="n">
         <v>382640</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="2" t="n">
         <v>382640</v>
       </c>
-      <c r="B134" s="1" t="n">
+      <c r="B134" s="2" t="n">
         <v>383640</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="2" t="n">
         <v>383640</v>
       </c>
-      <c r="B135" s="1" t="n">
+      <c r="B135" s="2" t="n">
         <v>389640</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="2" t="n">
         <v>389640</v>
       </c>
-      <c r="B136" s="1" t="n">
+      <c r="B136" s="2" t="n">
         <v>395640</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="2" t="n">
         <v>395640</v>
       </c>
-      <c r="B137" s="1" t="n">
+      <c r="B137" s="2" t="n">
         <v>397640</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="2" t="n">
         <v>397640</v>
       </c>
-      <c r="B138" s="1" t="n">
+      <c r="B138" s="2" t="n">
         <v>398640</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="2" t="n">
         <v>398640</v>
       </c>
-      <c r="B139" s="1" t="n">
+      <c r="B139" s="2" t="n">
         <v>399640</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="2" t="n">
         <v>399640</v>
       </c>
-      <c r="B140" s="1" t="n">
+      <c r="B140" s="2" t="n">
         <v>400640</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="2" t="n">
         <v>401640</v>
       </c>
-      <c r="B141" s="1" t="n">
+      <c r="B141" s="2" t="n">
         <v>402640</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="2" t="n">
         <v>402640</v>
       </c>
-      <c r="B142" s="1" t="n">
+      <c r="B142" s="2" t="n">
         <v>403640</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="2" t="n">
         <v>403640</v>
       </c>
-      <c r="B143" s="1" t="n">
+      <c r="B143" s="2" t="n">
         <v>411640</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E143" s="1" t="n">
+      <c r="E143" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="F143" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H143" s="1" t="s">
+      <c r="H143" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="2" t="n">
         <v>411640</v>
       </c>
-      <c r="B144" s="1" t="n">
+      <c r="B144" s="2" t="n">
         <v>413640</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F144" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="2" t="n">
         <v>413640</v>
       </c>
-      <c r="B145" s="1" t="n">
+      <c r="B145" s="2" t="n">
         <v>415640</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="2" t="n">
         <v>415640</v>
       </c>
-      <c r="B146" s="1" t="n">
+      <c r="B146" s="2" t="n">
         <v>417640</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="2" t="n">
         <v>417640</v>
       </c>
-      <c r="B147" s="1" t="n">
+      <c r="B147" s="2" t="n">
         <v>421640</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="2" t="n">
         <v>421640</v>
       </c>
-      <c r="B148" s="1" t="n">
+      <c r="B148" s="2" t="n">
         <v>427640</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E148" s="1" t="n">
+      <c r="E148" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="F148" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="H148" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="2" t="n">
         <v>427640</v>
       </c>
-      <c r="B149" s="1" t="n">
+      <c r="B149" s="2" t="n">
         <v>428640</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="F149" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="2" t="n">
         <v>428640</v>
       </c>
-      <c r="B150" s="1" t="n">
+      <c r="B150" s="2" t="n">
         <v>431640</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F150" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="2" t="n">
         <v>431640</v>
       </c>
-      <c r="B151" s="1" t="n">
+      <c r="B151" s="2" t="n">
         <v>432640</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="F151" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="2" t="n">
         <v>432640</v>
       </c>
-      <c r="B152" s="1" t="n">
+      <c r="B152" s="2" t="n">
         <v>435640</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F152" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="2" t="n">
         <v>435640</v>
       </c>
-      <c r="B153" s="1" t="n">
+      <c r="B153" s="2" t="n">
         <v>436640</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="F153" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H153" s="2" t="s">
+      <c r="H153" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="2" t="n">
         <v>436640</v>
       </c>
-      <c r="B154" s="1" t="n">
+      <c r="B154" s="2" t="n">
         <v>439640</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="2" t="n">
         <v>439640</v>
       </c>
-      <c r="B155" s="1" t="n">
+      <c r="B155" s="2" t="n">
         <v>440640</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="2" t="n">
         <v>440640</v>
       </c>
-      <c r="B156" s="1" t="n">
+      <c r="B156" s="2" t="n">
         <v>444640</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="2" t="n">
         <v>444640</v>
       </c>
-      <c r="B157" s="1" t="n">
+      <c r="B157" s="2" t="n">
         <v>449640</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E157" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="F157" s="1" t="s">
+      <c r="E157" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H157" s="1" t="s">
+      <c r="H157" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="2" t="n">
         <v>449640</v>
       </c>
-      <c r="B158" s="1" t="n">
+      <c r="B158" s="2" t="n">
         <v>451640</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="2" t="n">
         <v>451640</v>
       </c>
-      <c r="B159" s="1" t="n">
+      <c r="B159" s="2" t="n">
         <v>455640</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
+      <c r="A160" s="2" t="n">
         <v>455640</v>
       </c>
-      <c r="B160" s="1" t="n">
+      <c r="B160" s="2" t="n">
         <v>456640</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
+      <c r="A161" s="2" t="n">
         <v>456640</v>
       </c>
-      <c r="B161" s="1" t="n">
+      <c r="B161" s="2" t="n">
         <v>459640</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
+      <c r="A162" s="2" t="n">
         <v>459640</v>
       </c>
-      <c r="B162" s="1" t="n">
+      <c r="B162" s="2" t="n">
         <v>462640</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E162" s="1" t="n">
+      <c r="E162" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="F162" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
+      <c r="A163" s="2" t="n">
         <v>462640</v>
       </c>
-      <c r="B163" s="1" t="n">
+      <c r="B163" s="2" t="n">
         <v>468640</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="F163" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H163" s="1" t="s">
+      <c r="H163" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
+      <c r="A164" s="2" t="n">
         <v>468640</v>
       </c>
-      <c r="B164" s="1" t="n">
+      <c r="B164" s="2" t="n">
         <v>476380</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="F164" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
+      <c r="A165" s="2" t="n">
         <v>476380</v>
       </c>
-      <c r="B165" s="1" t="n">
+      <c r="B165" s="2" t="n">
         <v>484180</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="F165" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H165" s="1" t="s">
+      <c r="H165" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
+      <c r="A166" s="2" t="n">
         <v>476380</v>
       </c>
-      <c r="B166" s="1" t="n">
+      <c r="B166" s="2" t="n">
         <v>484180</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="F166" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
+      <c r="A167" s="2" t="n">
         <v>484180</v>
       </c>
-      <c r="B167" s="1" t="n">
+      <c r="B167" s="2" t="n">
         <v>491440</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
+      <c r="A168" s="2" t="n">
         <v>491440</v>
       </c>
-      <c r="B168" s="1" t="n">
+      <c r="B168" s="2" t="n">
         <v>497500</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E168" s="1" t="n">
+      <c r="E168" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F168" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H168" s="1" t="s">
+      <c r="H168" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
+      <c r="A169" s="2" t="n">
         <v>497500</v>
       </c>
-      <c r="B169" s="1" t="n">
+      <c r="B169" s="2" t="n">
         <v>502500</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F169" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
+      <c r="A170" s="2" t="n">
         <v>502500</v>
       </c>
-      <c r="B170" s="1" t="n">
+      <c r="B170" s="2" t="n">
         <v>506500</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
+      <c r="A171" s="2" t="n">
         <v>506500</v>
       </c>
-      <c r="B171" s="1" t="n">
+      <c r="B171" s="2" t="n">
         <v>508500</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
+      <c r="A172" s="2" t="n">
         <v>508500</v>
       </c>
-      <c r="B172" s="1" t="n">
+      <c r="B172" s="2" t="n">
         <v>509500</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D172" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
+      <c r="A173" s="2" t="n">
         <v>509500</v>
       </c>
-      <c r="B173" s="1" t="n">
+      <c r="B173" s="2" t="n">
         <v>515500</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="F173" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H173" s="1" t="s">
+      <c r="H173" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="n">
+      <c r="A174" s="2" t="n">
         <v>515500</v>
       </c>
-      <c r="B174" s="1" t="n">
+      <c r="B174" s="2" t="n">
         <v>516500</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
+      <c r="A175" s="2" t="n">
         <v>516500</v>
       </c>
-      <c r="B175" s="1" t="n">
+      <c r="B175" s="2" t="n">
         <v>518500</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
+      <c r="A176" s="2" t="n">
         <v>518500</v>
       </c>
-      <c r="B176" s="1" t="n">
+      <c r="B176" s="2" t="n">
         <v>520500</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
+      <c r="A177" s="2" t="n">
         <v>520500</v>
       </c>
-      <c r="B177" s="1" t="n">
+      <c r="B177" s="2" t="n">
         <v>523500</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="n">
+      <c r="A178" s="2" t="n">
         <v>523500</v>
       </c>
-      <c r="B178" s="1" t="n">
+      <c r="B178" s="2" t="n">
         <v>524500</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
+      <c r="A179" s="2" t="n">
         <v>524500</v>
       </c>
-      <c r="B179" s="1" t="n">
+      <c r="B179" s="2" t="n">
         <v>525500</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="n">
+      <c r="A180" s="2" t="n">
         <v>525500</v>
       </c>
-      <c r="B180" s="1" t="n">
+      <c r="B180" s="2" t="n">
         <v>526500</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
+      <c r="A181" s="2" t="n">
         <v>526500</v>
       </c>
-      <c r="B181" s="1" t="n">
+      <c r="B181" s="2" t="n">
         <v>532260</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
+      <c r="A182" s="2" t="n">
         <v>532260</v>
       </c>
-      <c r="B182" s="1" t="n">
+      <c r="B182" s="2" t="n">
         <v>533500</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
+      <c r="A183" s="2" t="n">
         <v>533500</v>
       </c>
-      <c r="B183" s="1" t="n">
+      <c r="B183" s="2" t="n">
         <v>535500</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
+      <c r="A184" s="2" t="n">
         <v>535500</v>
       </c>
-      <c r="B184" s="1" t="n">
+      <c r="B184" s="2" t="n">
         <v>538500</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E184" s="1" t="n">
+      <c r="E184" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F184" s="1" t="s">
+      <c r="F184" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H184" s="1" t="s">
+      <c r="H184" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
+      <c r="A185" s="2" t="n">
         <v>538500</v>
       </c>
-      <c r="B185" s="1" t="n">
+      <c r="B185" s="2" t="n">
         <v>540500</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
+      <c r="A186" s="2" t="n">
         <v>540500</v>
       </c>
-      <c r="B186" s="1" t="n">
+      <c r="B186" s="2" t="n">
         <v>541500</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D186" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="n">
+      <c r="A187" s="2" t="n">
         <v>541500</v>
       </c>
-      <c r="B187" s="1" t="n">
+      <c r="B187" s="2" t="n">
         <v>542500</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="n">
+      <c r="A188" s="2" t="n">
         <v>542500</v>
       </c>
-      <c r="B188" s="1" t="n">
+      <c r="B188" s="2" t="n">
         <v>546500</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D188" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="n">
+      <c r="A189" s="2" t="n">
         <v>546500</v>
       </c>
-      <c r="B189" s="1" t="n">
+      <c r="B189" s="2" t="n">
         <v>550500</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E189" s="1" t="n">
+      <c r="E189" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="F189" s="1" t="s">
+      <c r="F189" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H189" s="1" t="s">
+      <c r="H189" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="n">
+      <c r="A190" s="2" t="n">
         <v>550500</v>
       </c>
-      <c r="B190" s="1" t="n">
+      <c r="B190" s="2" t="n">
         <v>552500</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D190" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F190" s="1" t="s">
+      <c r="F190" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="n">
+      <c r="A191" s="2" t="n">
         <v>552500</v>
       </c>
-      <c r="B191" s="1" t="n">
+      <c r="B191" s="2" t="n">
         <v>553500</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="n">
+      <c r="A192" s="2" t="n">
         <v>553500</v>
       </c>
-      <c r="B192" s="1" t="n">
+      <c r="B192" s="2" t="n">
         <v>555500</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D192" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F192" s="1" t="s">
+      <c r="F192" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="n">
+      <c r="A193" s="2" t="n">
         <v>555500</v>
       </c>
-      <c r="B193" s="1" t="n">
+      <c r="B193" s="2" t="n">
         <v>558500</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F193" s="1" t="s">
+      <c r="F193" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H193" s="1" t="s">
+      <c r="H193" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="n">
+      <c r="A194" s="2" t="n">
         <v>558500</v>
       </c>
-      <c r="B194" s="1" t="n">
+      <c r="B194" s="2" t="n">
         <v>562500</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D194" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="n">
+      <c r="A195" s="2" t="n">
         <v>562500</v>
       </c>
-      <c r="B195" s="1" t="n">
+      <c r="B195" s="2" t="n">
         <v>563500</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D195" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="n">
+      <c r="A196" s="2" t="n">
         <v>563500</v>
       </c>
-      <c r="B196" s="1" t="n">
+      <c r="B196" s="2" t="n">
         <v>566500</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D196" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="n">
+      <c r="A197" s="2" t="n">
         <v>566500</v>
       </c>
-      <c r="B197" s="1" t="n">
+      <c r="B197" s="2" t="n">
         <v>571500</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D197" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E197" s="1" t="n">
+      <c r="E197" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="F197" s="1" t="s">
+      <c r="F197" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H197" s="1" t="s">
+      <c r="H197" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="n">
+      <c r="A198" s="2" t="n">
         <v>571500</v>
       </c>
-      <c r="B198" s="1" t="n">
+      <c r="B198" s="2" t="n">
         <v>572500</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D198" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="n">
+      <c r="A199" s="2" t="n">
         <v>572500</v>
       </c>
-      <c r="B199" s="1" t="n">
+      <c r="B199" s="2" t="n">
         <v>576500</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D199" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="n">
+      <c r="A200" s="2" t="n">
         <v>576500</v>
       </c>
-      <c r="B200" s="1" t="n">
+      <c r="B200" s="2" t="n">
         <v>582500</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D200" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E200" s="1" t="n">
+      <c r="E200" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="F200" s="1" t="s">
+      <c r="F200" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H200" s="1" t="s">
+      <c r="H200" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="n">
+      <c r="A201" s="2" t="n">
         <v>582500</v>
       </c>
-      <c r="B201" s="1" t="n">
+      <c r="B201" s="2" t="n">
         <v>583500</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D201" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="n">
+      <c r="A202" s="2" t="n">
         <v>583500</v>
       </c>
-      <c r="B202" s="1" t="n">
+      <c r="B202" s="2" t="n">
         <v>586500</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D202" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="n">
+      <c r="A203" s="2" t="n">
         <v>586500</v>
       </c>
-      <c r="B203" s="1" t="n">
+      <c r="B203" s="2" t="n">
         <v>589500</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C203" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D203" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="n">
+      <c r="A204" s="2" t="n">
         <v>589500</v>
       </c>
-      <c r="B204" s="1" t="n">
+      <c r="B204" s="2" t="n">
         <v>592500</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C204" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D204" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="n">
+      <c r="A205" s="2" t="n">
         <v>592500</v>
       </c>
-      <c r="B205" s="1" t="n">
+      <c r="B205" s="2" t="n">
         <v>594500</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C205" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D205" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="n">
+      <c r="A206" s="2" t="n">
         <v>594500</v>
       </c>
-      <c r="B206" s="1" t="n">
+      <c r="B206" s="2" t="n">
         <v>595500</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D206" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="n">
+      <c r="A207" s="2" t="n">
         <v>595500</v>
       </c>
-      <c r="B207" s="1" t="n">
+      <c r="B207" s="2" t="n">
         <v>598500</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="n">
+      <c r="A208" s="2" t="n">
         <v>598500</v>
       </c>
-      <c r="B208" s="1" t="n">
+      <c r="B208" s="2" t="n">
         <v>599500</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D208" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="n">
+      <c r="A209" s="2" t="n">
         <v>599500</v>
       </c>
-      <c r="B209" s="1" t="n">
+      <c r="B209" s="2" t="n">
         <v>602500</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C209" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="D209" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="n">
+      <c r="A210" s="2" t="n">
         <v>602500</v>
       </c>
-      <c r="B210" s="1" t="n">
+      <c r="B210" s="2" t="n">
         <v>605500</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C210" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D210" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="n">
+      <c r="A211" s="2" t="n">
         <v>605500</v>
       </c>
-      <c r="B211" s="1" t="n">
+      <c r="B211" s="2" t="n">
         <v>607500</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="n">
+      <c r="A212" s="2" t="n">
         <v>607500</v>
       </c>
-      <c r="B212" s="1" t="n">
+      <c r="B212" s="2" t="n">
         <v>610500</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D212" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E212" s="1" t="n">
+      <c r="E212" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="F212" s="1" t="s">
+      <c r="F212" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H212" s="1" t="s">
+      <c r="H212" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="n">
+      <c r="A213" s="2" t="n">
         <v>610500</v>
       </c>
-      <c r="B213" s="1" t="n">
+      <c r="B213" s="2" t="n">
         <v>615500</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C213" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="D213" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="n">
+      <c r="A214" s="2" t="n">
         <v>615500</v>
       </c>
-      <c r="B214" s="1" t="n">
+      <c r="B214" s="2" t="n">
         <v>617500</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C214" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="D214" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="n">
+      <c r="A215" s="2" t="n">
         <v>617500</v>
       </c>
-      <c r="B215" s="1" t="n">
+      <c r="B215" s="2" t="n">
         <v>619500</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D215" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="n">
+      <c r="A216" s="2" t="n">
         <v>619500</v>
       </c>
-      <c r="B216" s="1" t="n">
+      <c r="B216" s="2" t="n">
         <v>622500</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C216" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D216" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="n">
+      <c r="A217" s="2" t="n">
         <v>622500</v>
       </c>
-      <c r="B217" s="1" t="n">
+      <c r="B217" s="2" t="n">
         <v>624500</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C217" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D217" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="n">
+      <c r="A218" s="2" t="n">
         <v>624500</v>
       </c>
-      <c r="B218" s="1" t="n">
+      <c r="B218" s="2" t="n">
         <v>625500</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C218" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D218" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="n">
+      <c r="A219" s="2" t="n">
         <v>625500</v>
       </c>
-      <c r="B219" s="1" t="n">
+      <c r="B219" s="2" t="n">
         <v>629500</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C219" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D219" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="n">
+      <c r="A220" s="2" t="n">
         <v>629500</v>
       </c>
-      <c r="B220" s="1" t="n">
+      <c r="B220" s="2" t="n">
         <v>634500</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D220" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E220" s="1" t="n">
+      <c r="E220" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F220" s="1" t="s">
+      <c r="F220" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H220" s="1" t="s">
+      <c r="H220" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="n">
+      <c r="A221" s="2" t="n">
         <v>634500</v>
       </c>
-      <c r="B221" s="1" t="n">
+      <c r="B221" s="2" t="n">
         <v>635800</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D221" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="F221" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="n">
+      <c r="A222" s="2" t="n">
         <v>635800</v>
       </c>
-      <c r="B222" s="1" t="n">
+      <c r="B222" s="2" t="n">
         <v>636500</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D222" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="n">
+      <c r="A223" s="2" t="n">
         <v>636500</v>
       </c>
-      <c r="B223" s="1" t="n">
+      <c r="B223" s="2" t="n">
         <v>638000</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D223" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="n">
+      <c r="A224" s="2" t="n">
         <v>638000</v>
       </c>
-      <c r="B224" s="1" t="n">
+      <c r="B224" s="2" t="n">
         <v>640000</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D224" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="n">
+      <c r="A225" s="2" t="n">
         <v>640000</v>
       </c>
-      <c r="B225" s="1" t="n">
+      <c r="B225" s="2" t="n">
         <v>641500</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D225" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1" t="n">
+      <c r="A226" s="2" t="n">
         <v>641500</v>
       </c>
-      <c r="B226" s="1" t="n">
+      <c r="B226" s="2" t="n">
         <v>646000</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="D226" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E226" s="1" t="n">
+      <c r="E226" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="F226" s="1" t="s">
+      <c r="F226" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H226" s="1" t="s">
+      <c r="H226" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="n">
+      <c r="A227" s="2" t="n">
         <v>646000</v>
       </c>
-      <c r="B227" s="1" t="n">
+      <c r="B227" s="2" t="n">
         <v>648000</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C227" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D227" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="n">
+      <c r="A228" s="2" t="n">
         <v>648000</v>
       </c>
-      <c r="B228" s="1" t="n">
+      <c r="B228" s="2" t="n">
         <v>653000</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C228" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="D228" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="n">
+      <c r="A229" s="2" t="n">
         <v>653000</v>
       </c>
-      <c r="B229" s="1" t="n">
+      <c r="B229" s="2" t="n">
         <v>655000</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D229" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="n">
+      <c r="A230" s="2" t="n">
         <v>655000</v>
       </c>
-      <c r="B230" s="1" t="n">
+      <c r="B230" s="2" t="n">
         <v>658000</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D230" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="n">
+      <c r="A231" s="2" t="n">
         <v>658000</v>
       </c>
-      <c r="B231" s="1" t="n">
+      <c r="B231" s="2" t="n">
         <v>664000</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C231" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D231" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E231" s="1" t="n">
+      <c r="E231" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="F231" s="1" t="s">
+      <c r="F231" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H231" s="1" t="s">
+      <c r="H231" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="n">
+      <c r="A232" s="2" t="n">
         <v>664000</v>
       </c>
-      <c r="B232" s="1" t="n">
+      <c r="B232" s="2" t="n">
         <v>665000</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C232" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D232" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="n">
+      <c r="A233" s="2" t="n">
         <v>665000</v>
       </c>
-      <c r="B233" s="1" t="n">
+      <c r="B233" s="2" t="n">
         <v>666000</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C233" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="D233" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="n">
+      <c r="A234" s="2" t="n">
         <v>666000</v>
       </c>
-      <c r="B234" s="1" t="n">
+      <c r="B234" s="2" t="n">
         <v>667000</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D234" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="n">
+      <c r="A235" s="2" t="n">
         <v>667000</v>
       </c>
-      <c r="B235" s="1" t="n">
+      <c r="B235" s="2" t="n">
         <v>668000</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D235" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="n">
+      <c r="A236" s="2" t="n">
         <v>668000</v>
       </c>
-      <c r="B236" s="1" t="n">
+      <c r="B236" s="2" t="n">
         <v>671000</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C236" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="D236" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="n">
+      <c r="A237" s="2" t="n">
         <v>671000</v>
       </c>
-      <c r="B237" s="1" t="n">
+      <c r="B237" s="2" t="n">
         <v>673000</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D237" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="n">
+      <c r="A238" s="2" t="n">
         <v>673000</v>
       </c>
-      <c r="B238" s="1" t="n">
+      <c r="B238" s="2" t="n">
         <v>676000</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C238" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D238" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="n">
+      <c r="A239" s="2" t="n">
         <v>676000</v>
       </c>
-      <c r="B239" s="1" t="n">
+      <c r="B239" s="2" t="n">
         <v>680000</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="D239" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="n">
+      <c r="A240" s="2" t="n">
         <v>680000</v>
       </c>
-      <c r="B240" s="1" t="n">
+      <c r="B240" s="2" t="n">
         <v>682000</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="D240" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="n">
+      <c r="A241" s="2" t="n">
         <v>682000</v>
       </c>
-      <c r="B241" s="1" t="n">
+      <c r="B241" s="2" t="n">
         <v>685000</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C241" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="D241" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/expt_2/raw_transcripts/game44.xlsx
+++ b/data/expt_2/raw_transcripts/game44.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="248">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">on_topic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yay! Now we're on camera!</t>
   </si>
   <si>
@@ -185,6 +188,9 @@
   </si>
   <si>
     <t xml:space="preserve">banana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve"> And now you helps Murphy guess, which is the picture that she told you.</t>
@@ -840,7 +846,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -850,6 +856,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1046,12 +1056,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G203" activeCellId="0" sqref="G203"/>
+      <selection pane="bottomLeft" activeCell="F236" activeCellId="0" sqref="F236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1084,6 +1094,9 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -1093,10 +1106,10 @@
         <v>4000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,10 +1120,10 @@
         <v>9000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,10 +1134,10 @@
         <v>13000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,10 +1148,10 @@
         <v>14000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,10 +1162,10 @@
         <v>15000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1163,10 +1176,10 @@
         <v>15000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1177,10 +1190,10 @@
         <v>20000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,10 +1204,10 @@
         <v>21000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,10 +1218,10 @@
         <v>22000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1219,10 +1232,10 @@
         <v>29000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,10 +1246,10 @@
         <v>31000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,10 +1260,10 @@
         <v>34000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1261,10 +1274,10 @@
         <v>36000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1275,10 +1288,10 @@
         <v>37000</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,10 +1302,10 @@
         <v>38000</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1303,10 +1316,10 @@
         <v>39000</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1317,10 +1330,10 @@
         <v>40000</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,10 +1344,10 @@
         <v>42000</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,10 +1358,10 @@
         <v>43000</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,10 +1372,10 @@
         <v>46000</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1373,10 +1386,10 @@
         <v>49000</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,10 +1400,10 @@
         <v>55000</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,10 +1414,10 @@
         <v>58000</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1415,10 +1428,10 @@
         <v>59000</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1429,10 +1442,10 @@
         <v>65360</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1443,10 +1456,10 @@
         <v>71000</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,10 +1470,10 @@
         <v>76160</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,10 +1484,10 @@
         <v>81860</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,10 +1498,10 @@
         <v>87500</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,10 +1512,10 @@
         <v>93120</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,10 +1526,10 @@
         <v>98260</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1527,10 +1540,10 @@
         <v>102760</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1541,10 +1554,10 @@
         <v>106820</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,10 +1568,10 @@
         <v>113260</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,10 +1582,10 @@
         <v>114300</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,10 +1596,10 @@
         <v>116840</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1597,10 +1610,10 @@
         <v>118840</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1611,10 +1624,10 @@
         <v>120740</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,10 +1638,10 @@
         <v>125360</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1639,10 +1652,10 @@
         <v>128300</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1653,10 +1666,10 @@
         <v>128880</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,10 +1680,10 @@
         <v>130700</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,10 +1694,10 @@
         <v>135060</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,10 +1708,10 @@
         <v>139180</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,10 +1722,10 @@
         <v>143140</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,10 +1736,10 @@
         <v>150720</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1737,19 +1750,22 @@
         <v>152360</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,10 +1776,10 @@
         <v>157440</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,12 +1790,15 @@
         <v>158520</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1791,10 +1810,10 @@
         <v>159940</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,10 +1824,10 @@
         <v>162580</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,10 +1838,10 @@
         <v>163660</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1833,10 +1852,10 @@
         <v>169060</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1847,19 +1866,22 @@
         <v>177380</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,10 +1892,10 @@
         <v>183420</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,15 +1906,18 @@
         <v>185660</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H57" s="2"/>
+      <c r="I57" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
@@ -1902,10 +1927,10 @@
         <v>188760</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1916,12 +1941,15 @@
         <v>189760</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1933,10 +1961,10 @@
         <v>191760</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1947,10 +1975,10 @@
         <v>195760</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1961,10 +1989,10 @@
         <v>198760</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1975,10 +2003,10 @@
         <v>200760</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,10 +2017,10 @@
         <v>201760</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,19 +2031,22 @@
         <v>205760</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2026,12 +2057,15 @@
         <v>209760</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I66" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2043,10 +2077,10 @@
         <v>212760</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,10 +2091,10 @@
         <v>214760</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2071,10 +2105,10 @@
         <v>215760</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2085,10 +2119,10 @@
         <v>216760</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2099,10 +2133,10 @@
         <v>217760</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,10 +2147,10 @@
         <v>222000</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2127,10 +2161,10 @@
         <v>224000</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,19 +2175,22 @@
         <v>226000</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,10 +2201,10 @@
         <v>231200</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2178,10 +2215,10 @@
         <v>235520</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2192,16 +2229,19 @@
         <v>238480</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>4</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2212,10 +2252,10 @@
         <v>241920</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2226,16 +2266,19 @@
         <v>244640</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,13 +2289,16 @@
         <v>249640</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,13 +2309,16 @@
         <v>252640</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,12 +2329,15 @@
         <v>252640</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I82" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2297,10 +2349,10 @@
         <v>255640</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,10 +2363,10 @@
         <v>257640</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,13 +2377,16 @@
         <v>258640</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,13 +2397,16 @@
         <v>260640</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2359,13 +2417,16 @@
         <v>261640</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,10 +2437,10 @@
         <v>262640</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,10 +2451,10 @@
         <v>264640</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2404,10 +2465,10 @@
         <v>273640</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2418,16 +2479,19 @@
         <v>280640</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,10 +2502,10 @@
         <v>282640</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,10 +2516,10 @@
         <v>286640</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,12 +2530,15 @@
         <v>288640</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F94" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I94" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2483,10 +2550,10 @@
         <v>289640</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,10 +2564,13 @@
         <v>292640</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,10 +2581,10 @@
         <v>295640</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,10 +2595,10 @@
         <v>297640</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2539,10 +2609,10 @@
         <v>301640</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2553,10 +2623,10 @@
         <v>302640</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2567,10 +2637,10 @@
         <v>304640</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,10 +2651,10 @@
         <v>306640</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2595,10 +2665,10 @@
         <v>307640</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2609,10 +2679,10 @@
         <v>309640</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2623,10 +2693,10 @@
         <v>310640</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2637,10 +2707,10 @@
         <v>315640</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,10 +2721,10 @@
         <v>317640</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,10 +2735,10 @@
         <v>319640</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2679,10 +2749,10 @@
         <v>321640</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2693,10 +2763,10 @@
         <v>323640</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,10 +2777,10 @@
         <v>324640</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,10 +2791,10 @@
         <v>325640</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,16 +2805,19 @@
         <v>328640</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E113" s="2" t="n">
         <v>5</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2755,10 +2828,10 @@
         <v>330640</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,16 +2842,19 @@
         <v>336640</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2789,12 +2865,15 @@
         <v>342640</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F116" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I116" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2806,10 +2885,10 @@
         <v>346640</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2820,10 +2899,10 @@
         <v>347640</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,10 +2913,10 @@
         <v>348640</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2848,10 +2927,10 @@
         <v>351640</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,10 +2941,10 @@
         <v>353640</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2876,18 +2955,21 @@
         <v>356640</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E122" s="2" t="n">
         <v>6</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H122" s="2"/>
+      <c r="I122" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="n">
@@ -2897,16 +2979,19 @@
         <v>360640</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2917,12 +3002,15 @@
         <v>362640</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F124" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I124" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2934,13 +3022,16 @@
         <v>364640</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2951,10 +3042,10 @@
         <v>365640</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,12 +3056,15 @@
         <v>367640</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F127" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I127" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2982,12 +3076,15 @@
         <v>369640</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F128" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I128" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2999,10 +3096,10 @@
         <v>372640</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3013,16 +3110,19 @@
         <v>376640</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3033,12 +3133,15 @@
         <v>378640</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F131" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I131" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3050,10 +3153,10 @@
         <v>380640</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3064,10 +3167,10 @@
         <v>382640</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3078,10 +3181,10 @@
         <v>383640</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,10 +3195,10 @@
         <v>389640</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3106,10 +3209,10 @@
         <v>395640</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,10 +3223,10 @@
         <v>397640</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,10 +3237,10 @@
         <v>398640</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,10 +3251,10 @@
         <v>399640</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3162,10 +3265,10 @@
         <v>400640</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,10 +3279,10 @@
         <v>402640</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,10 +3293,10 @@
         <v>403640</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3204,19 +3307,22 @@
         <v>411640</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E143" s="2" t="n">
         <v>7</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3227,12 +3333,15 @@
         <v>413640</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F144" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I144" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3244,10 +3353,10 @@
         <v>415640</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,10 +3367,10 @@
         <v>417640</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,10 +3381,10 @@
         <v>421640</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,19 +3395,22 @@
         <v>427640</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E148" s="2" t="n">
         <v>8</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,12 +3421,15 @@
         <v>428640</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F149" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I149" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3326,12 +3441,15 @@
         <v>431640</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F150" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I150" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3343,12 +3461,15 @@
         <v>432640</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F151" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I151" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3360,12 +3481,15 @@
         <v>435640</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F152" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I152" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3377,16 +3501,19 @@
         <v>436640</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H153" s="3" t="s">
-        <v>166</v>
+        <v>54</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3397,10 +3524,10 @@
         <v>439640</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3411,10 +3538,10 @@
         <v>440640</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3425,10 +3552,10 @@
         <v>444640</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3439,19 +3566,22 @@
         <v>449640</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E157" s="2" t="n">
         <v>9</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3462,10 +3592,10 @@
         <v>451640</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3476,10 +3606,10 @@
         <v>455640</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3490,10 +3620,10 @@
         <v>456640</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3504,10 +3634,10 @@
         <v>459640</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3518,16 +3648,19 @@
         <v>462640</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E162" s="2" t="n">
         <v>10</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3538,16 +3671,19 @@
         <v>468640</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,12 +3694,15 @@
         <v>476380</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F164" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I164" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3575,16 +3714,19 @@
         <v>484180</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,13 +3737,16 @@
         <v>484180</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,10 +3757,10 @@
         <v>491440</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3626,19 +3771,22 @@
         <v>497500</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E168" s="2" t="n">
         <v>11</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,13 +3797,13 @@
         <v>502500</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3666,10 +3814,10 @@
         <v>506500</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3680,10 +3828,10 @@
         <v>508500</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3694,10 +3842,10 @@
         <v>509500</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,16 +3856,19 @@
         <v>515500</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3728,10 +3879,10 @@
         <v>516500</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3742,10 +3893,10 @@
         <v>518500</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3756,10 +3907,10 @@
         <v>520500</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3770,10 +3921,10 @@
         <v>523500</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3784,10 +3935,10 @@
         <v>524500</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3798,10 +3949,10 @@
         <v>525500</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3812,10 +3963,10 @@
         <v>526500</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3826,10 +3977,10 @@
         <v>532260</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3840,10 +3991,10 @@
         <v>533500</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,10 +4005,10 @@
         <v>535500</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3868,19 +4019,22 @@
         <v>538500</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E184" s="2" t="n">
         <v>12</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3891,10 +4045,10 @@
         <v>540500</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3905,10 +4059,10 @@
         <v>541500</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,10 +4073,10 @@
         <v>542500</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,10 +4087,10 @@
         <v>546500</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,19 +4101,22 @@
         <v>550500</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E189" s="2" t="n">
         <v>13</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3970,13 +4127,13 @@
         <v>552500</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3987,10 +4144,10 @@
         <v>553500</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4001,13 +4158,16 @@
         <v>555500</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4018,16 +4178,19 @@
         <v>558500</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4038,10 +4201,10 @@
         <v>562500</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4052,10 +4215,10 @@
         <v>563500</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4066,10 +4229,10 @@
         <v>566500</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4080,19 +4243,22 @@
         <v>571500</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E197" s="2" t="n">
         <v>14</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4103,10 +4269,10 @@
         <v>572500</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,10 +4283,10 @@
         <v>576500</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,19 +4297,22 @@
         <v>582500</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E200" s="2" t="n">
         <v>15</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,10 +4323,10 @@
         <v>583500</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4168,10 +4337,10 @@
         <v>586500</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4182,10 +4351,10 @@
         <v>589500</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4196,10 +4365,10 @@
         <v>592500</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4210,10 +4379,10 @@
         <v>594500</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4224,10 +4393,10 @@
         <v>595500</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4238,10 +4407,10 @@
         <v>598500</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4252,10 +4421,10 @@
         <v>599500</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4266,10 +4435,10 @@
         <v>602500</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4280,10 +4449,10 @@
         <v>605500</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4294,10 +4463,10 @@
         <v>607500</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4308,19 +4477,22 @@
         <v>610500</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E212" s="2" t="n">
         <v>16</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,10 +4503,10 @@
         <v>615500</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4345,10 +4517,10 @@
         <v>617500</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4359,10 +4531,10 @@
         <v>619500</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4373,10 +4545,10 @@
         <v>622500</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4387,10 +4559,10 @@
         <v>624500</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4401,10 +4573,10 @@
         <v>625500</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4415,10 +4587,10 @@
         <v>629500</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4429,19 +4601,22 @@
         <v>634500</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E220" s="2" t="n">
         <v>17</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4452,13 +4627,16 @@
         <v>635800</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4469,10 +4647,10 @@
         <v>636500</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4483,10 +4661,10 @@
         <v>638000</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4497,10 +4675,10 @@
         <v>640000</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4511,10 +4689,10 @@
         <v>641500</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4525,19 +4703,22 @@
         <v>646000</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E226" s="2" t="n">
         <v>18</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4548,10 +4729,10 @@
         <v>648000</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4562,10 +4743,10 @@
         <v>653000</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4576,10 +4757,10 @@
         <v>655000</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,10 +4771,10 @@
         <v>658000</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4604,19 +4785,22 @@
         <v>664000</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E231" s="2" t="n">
         <v>19</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4627,10 +4811,10 @@
         <v>665000</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4641,10 +4825,10 @@
         <v>666000</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4655,10 +4839,10 @@
         <v>667000</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4669,10 +4853,13 @@
         <v>668000</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4683,10 +4870,10 @@
         <v>671000</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4697,10 +4884,10 @@
         <v>673000</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4711,10 +4898,10 @@
         <v>676000</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4725,10 +4912,10 @@
         <v>680000</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4739,10 +4926,10 @@
         <v>682000</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4753,10 +4940,10 @@
         <v>685000</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/expt_2/raw_transcripts/game44.xlsx
+++ b/data/expt_2/raw_transcripts/game44.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="248">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -859,11 +859,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1059,9 +1059,9 @@
   <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F236" activeCellId="0" sqref="F236"/>
+      <selection pane="bottomLeft" activeCell="E71" activeCellId="0" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2166,6 +2166,9 @@
       <c r="D73" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F73" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
@@ -2569,6 +2572,9 @@
       <c r="D96" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F96" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="I96" s="3" t="s">
         <v>56</v>
       </c>
@@ -2628,6 +2634,9 @@
       <c r="D100" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F100" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
@@ -2642,6 +2651,9 @@
       <c r="D101" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F101" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
@@ -2726,6 +2738,9 @@
       <c r="D107" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F107" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="n">
@@ -2740,6 +2755,9 @@
       <c r="D108" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F108" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="n">
@@ -3214,6 +3232,9 @@
       <c r="D136" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F136" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="n">
@@ -3242,6 +3263,9 @@
       <c r="D138" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F138" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="n">
@@ -3509,7 +3533,7 @@
       <c r="F153" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H153" s="4" t="s">
+      <c r="H153" s="3" t="s">
         <v>168</v>
       </c>
       <c r="I153" s="3" t="s">
@@ -3625,6 +3649,9 @@
       <c r="D160" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F160" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="n">
@@ -3912,6 +3939,9 @@
       <c r="D176" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F176" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="n">
@@ -3940,6 +3970,9 @@
       <c r="D178" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F178" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="n">
@@ -3968,6 +4001,9 @@
       <c r="D180" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F180" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="n">
@@ -3982,6 +4018,9 @@
       <c r="D181" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F181" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="n">
@@ -4370,6 +4409,9 @@
       <c r="D204" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F204" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="n">
@@ -4398,6 +4440,9 @@
       <c r="D206" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F206" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="n">
@@ -4522,6 +4567,9 @@
       <c r="D214" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F214" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="n">
@@ -4550,6 +4598,9 @@
       <c r="D216" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F216" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="n">
@@ -4747,6 +4798,9 @@
       </c>
       <c r="D228" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/expt_2/raw_transcripts/game44.xlsx
+++ b/data/expt_2/raw_transcripts/game44.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="247">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -430,9 +430,6 @@
     <t xml:space="preserve">It looks like a people or something.</t>
   </si>
   <si>
-    <t xml:space="preserve">a people or something</t>
-  </si>
-  <si>
     <t xml:space="preserve">What does it look like?</t>
   </si>
   <si>
@@ -637,7 +634,7 @@
     <t xml:space="preserve">flying and it's jumping.</t>
   </si>
   <si>
-    <t xml:space="preserve">flying and it's jumping</t>
+    <t xml:space="preserve"> and it's jumping</t>
   </si>
   <si>
     <t xml:space="preserve"> Woo, good job!</t>
@@ -846,7 +843,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -860,10 +857,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1059,9 +1052,9 @@
   <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E71" activeCellId="0" sqref="E71"/>
+      <selection pane="bottomLeft" activeCell="F195" activeCellId="0" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2166,7 +2159,7 @@
       <c r="D73" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2572,7 +2565,7 @@
       <c r="D96" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I96" s="3" t="s">
@@ -2634,7 +2627,7 @@
       <c r="D100" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2651,7 +2644,7 @@
       <c r="D101" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2738,7 +2731,7 @@
       <c r="D107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2755,7 +2748,7 @@
       <c r="D108" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3005,9 +2998,7 @@
       <c r="F123" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H123" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="H123" s="2"/>
       <c r="I123" s="3" t="s">
         <v>56</v>
       </c>
@@ -3020,7 +3011,7 @@
         <v>362640</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>15</v>
@@ -3040,7 +3031,7 @@
         <v>364640</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>16</v>
@@ -3060,7 +3051,7 @@
         <v>365640</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>10</v>
@@ -3074,7 +3065,7 @@
         <v>367640</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>15</v>
@@ -3094,7 +3085,7 @@
         <v>369640</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>15</v>
@@ -3114,7 +3105,7 @@
         <v>372640</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>10</v>
@@ -3128,7 +3119,7 @@
         <v>376640</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>16</v>
@@ -3137,7 +3128,7 @@
         <v>54</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I130" s="3" t="s">
         <v>56</v>
@@ -3151,7 +3142,7 @@
         <v>378640</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>15</v>
@@ -3185,7 +3176,7 @@
         <v>382640</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>10</v>
@@ -3199,7 +3190,7 @@
         <v>383640</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>10</v>
@@ -3213,7 +3204,7 @@
         <v>389640</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>10</v>
@@ -3227,12 +3218,12 @@
         <v>395640</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="F136" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3244,7 +3235,7 @@
         <v>397640</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>10</v>
@@ -3258,12 +3249,12 @@
         <v>398640</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F138" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3275,7 +3266,7 @@
         <v>399640</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>10</v>
@@ -3289,7 +3280,7 @@
         <v>400640</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>10</v>
@@ -3303,7 +3294,7 @@
         <v>402640</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>10</v>
@@ -3317,7 +3308,7 @@
         <v>403640</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>10</v>
@@ -3331,7 +3322,7 @@
         <v>411640</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>15</v>
@@ -3343,7 +3334,7 @@
         <v>54</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>56</v>
@@ -3357,7 +3348,7 @@
         <v>413640</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>16</v>
@@ -3377,7 +3368,7 @@
         <v>415640</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>10</v>
@@ -3391,7 +3382,7 @@
         <v>417640</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>10</v>
@@ -3405,7 +3396,7 @@
         <v>421640</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>10</v>
@@ -3419,7 +3410,7 @@
         <v>427640</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>16</v>
@@ -3431,7 +3422,7 @@
         <v>54</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I148" s="3" t="s">
         <v>56</v>
@@ -3445,7 +3436,7 @@
         <v>428640</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>15</v>
@@ -3465,7 +3456,7 @@
         <v>431640</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>15</v>
@@ -3485,7 +3476,7 @@
         <v>432640</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>15</v>
@@ -3505,7 +3496,7 @@
         <v>435640</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>15</v>
@@ -3525,7 +3516,7 @@
         <v>436640</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>16</v>
@@ -3534,7 +3525,7 @@
         <v>54</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I153" s="3" t="s">
         <v>56</v>
@@ -3562,7 +3553,7 @@
         <v>440640</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>10</v>
@@ -3576,7 +3567,7 @@
         <v>444640</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>10</v>
@@ -3590,7 +3581,7 @@
         <v>449640</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>15</v>
@@ -3630,7 +3621,7 @@
         <v>455640</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>10</v>
@@ -3644,12 +3635,12 @@
         <v>456640</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F160" s="4" t="s">
+      <c r="F160" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3661,7 +3652,7 @@
         <v>459640</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>10</v>
@@ -3675,7 +3666,7 @@
         <v>462640</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>16</v>
@@ -3698,7 +3689,7 @@
         <v>468640</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>16</v>
@@ -3707,7 +3698,7 @@
         <v>54</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I163" s="3" t="s">
         <v>56</v>
@@ -3721,7 +3712,7 @@
         <v>476380</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>15</v>
@@ -3741,7 +3732,7 @@
         <v>484180</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>15</v>
@@ -3750,7 +3741,7 @@
         <v>58</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I165" s="3" t="s">
         <v>56</v>
@@ -3784,7 +3775,7 @@
         <v>491440</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>10</v>
@@ -3798,7 +3789,7 @@
         <v>497500</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>15</v>
@@ -3810,7 +3801,7 @@
         <v>54</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I168" s="3" t="s">
         <v>56</v>
@@ -3824,7 +3815,7 @@
         <v>502500</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>16</v>
@@ -3841,7 +3832,7 @@
         <v>506500</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>10</v>
@@ -3855,7 +3846,7 @@
         <v>508500</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>10</v>
@@ -3869,7 +3860,7 @@
         <v>509500</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>10</v>
@@ -3883,7 +3874,7 @@
         <v>515500</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>15</v>
@@ -3892,7 +3883,7 @@
         <v>54</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I173" s="3" t="s">
         <v>56</v>
@@ -3920,7 +3911,7 @@
         <v>518500</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>10</v>
@@ -3934,12 +3925,12 @@
         <v>520500</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F176" s="4" t="s">
+      <c r="F176" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3951,7 +3942,7 @@
         <v>523500</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>10</v>
@@ -3965,12 +3956,12 @@
         <v>524500</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F178" s="4" t="s">
+      <c r="F178" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3982,7 +3973,7 @@
         <v>525500</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>10</v>
@@ -3996,12 +3987,12 @@
         <v>526500</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F180" s="4" t="s">
+      <c r="F180" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4013,12 +4004,12 @@
         <v>532260</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F181" s="4" t="s">
+      <c r="F181" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4030,7 +4021,7 @@
         <v>533500</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>10</v>
@@ -4044,7 +4035,7 @@
         <v>535500</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>10</v>
@@ -4058,7 +4049,7 @@
         <v>538500</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>16</v>
@@ -4126,7 +4117,7 @@
         <v>546500</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>10</v>
@@ -4140,7 +4131,7 @@
         <v>550500</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>15</v>
@@ -4152,7 +4143,7 @@
         <v>54</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I189" s="3" t="s">
         <v>56</v>
@@ -4166,7 +4157,7 @@
         <v>552500</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>16</v>
@@ -4183,7 +4174,7 @@
         <v>553500</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>10</v>
@@ -4197,7 +4188,7 @@
         <v>555500</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>15</v>
@@ -4217,7 +4208,7 @@
         <v>558500</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>15</v>
@@ -4226,7 +4217,7 @@
         <v>54</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I193" s="3" t="s">
         <v>56</v>
@@ -4240,7 +4231,7 @@
         <v>562500</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>10</v>
@@ -4268,7 +4259,7 @@
         <v>566500</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>10</v>
@@ -4282,7 +4273,7 @@
         <v>571500</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>16</v>
@@ -4294,7 +4285,7 @@
         <v>54</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I197" s="3" t="s">
         <v>56</v>
@@ -4322,7 +4313,7 @@
         <v>576500</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>10</v>
@@ -4336,7 +4327,7 @@
         <v>582500</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>15</v>
@@ -4348,7 +4339,7 @@
         <v>54</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I200" s="3" t="s">
         <v>56</v>
@@ -4376,7 +4367,7 @@
         <v>586500</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>10</v>
@@ -4390,7 +4381,7 @@
         <v>589500</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>10</v>
@@ -4404,12 +4395,12 @@
         <v>592500</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F204" s="4" t="s">
+      <c r="F204" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4421,7 +4412,7 @@
         <v>594500</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>10</v>
@@ -4435,12 +4426,12 @@
         <v>595500</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F206" s="4" t="s">
+      <c r="F206" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4452,7 +4443,7 @@
         <v>598500</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>10</v>
@@ -4466,7 +4457,7 @@
         <v>599500</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>10</v>
@@ -4480,7 +4471,7 @@
         <v>602500</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>10</v>
@@ -4494,7 +4485,7 @@
         <v>605500</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>10</v>
@@ -4508,7 +4499,7 @@
         <v>607500</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>10</v>
@@ -4522,7 +4513,7 @@
         <v>610500</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>16</v>
@@ -4534,7 +4525,7 @@
         <v>54</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I212" s="3" t="s">
         <v>56</v>
@@ -4548,7 +4539,7 @@
         <v>615500</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>10</v>
@@ -4562,12 +4553,12 @@
         <v>617500</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F214" s="4" t="s">
+      <c r="F214" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4579,7 +4570,7 @@
         <v>619500</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>10</v>
@@ -4593,12 +4584,12 @@
         <v>622500</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F216" s="4" t="s">
+      <c r="F216" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4610,7 +4601,7 @@
         <v>624500</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>10</v>
@@ -4624,7 +4615,7 @@
         <v>625500</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>10</v>
@@ -4638,7 +4629,7 @@
         <v>629500</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>10</v>
@@ -4652,7 +4643,7 @@
         <v>634500</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>15</v>
@@ -4664,7 +4655,7 @@
         <v>54</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I220" s="3" t="s">
         <v>56</v>
@@ -4678,7 +4669,7 @@
         <v>635800</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>15</v>
@@ -4698,7 +4689,7 @@
         <v>636500</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>10</v>
@@ -4726,7 +4717,7 @@
         <v>640000</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>10</v>
@@ -4740,7 +4731,7 @@
         <v>641500</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>10</v>
@@ -4754,7 +4745,7 @@
         <v>646000</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>16</v>
@@ -4766,7 +4757,7 @@
         <v>54</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I226" s="3" t="s">
         <v>56</v>
@@ -4794,12 +4785,12 @@
         <v>653000</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F228" s="4" t="s">
+      <c r="F228" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4811,7 +4802,7 @@
         <v>655000</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>10</v>
@@ -4825,7 +4816,7 @@
         <v>658000</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>10</v>
@@ -4839,7 +4830,7 @@
         <v>664000</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>15</v>
@@ -4893,7 +4884,7 @@
         <v>667000</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>10</v>
@@ -4907,7 +4898,7 @@
         <v>668000</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>16</v>
@@ -4924,7 +4915,7 @@
         <v>671000</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>10</v>
@@ -4938,7 +4929,7 @@
         <v>673000</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>10</v>
@@ -4952,7 +4943,7 @@
         <v>676000</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>10</v>
@@ -4966,7 +4957,7 @@
         <v>680000</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>10</v>
@@ -4980,7 +4971,7 @@
         <v>682000</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>10</v>
@@ -4994,7 +4985,7 @@
         <v>685000</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>10</v>
